--- a/Main Modul/info.xlsx
+++ b/Main Modul/info.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITLAB\Python\ACS_BINAR.test\Main Modul\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D53C37-A399-4855-AD0E-64D7ACE092C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$N$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$N$502</definedName>
   </definedNames>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="338">
   <si>
     <t>Отдел</t>
   </si>
@@ -1028,19 +1034,16 @@
   </si>
   <si>
     <t>Главный специалист по охране труда и пожарной безопасности</t>
+  </si>
+  <si>
+    <t>МЕНЕДЖЕРЫ ПО ЗАКУПУ (РТС)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,159 +1058,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,198 +1068,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1420,257 +1086,15 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1686,62 +1110,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1999,32 +1382,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N500"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N235" sqref="N235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="21.2857142857143" customWidth="1"/>
-    <col min="7" max="14" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="49.5" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2392,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -2823,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2918,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -2971,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -3066,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
@@ -3203,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -3550,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:14">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:14">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -3866,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:14">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -4318,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:14">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -5304,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:14">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -5792,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:14">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
@@ -5965,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:14">
       <c r="A109" s="3" t="s">
         <v>104</v>
       </c>
@@ -6060,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:14">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -6155,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:14">
       <c r="A115" s="3" t="s">
         <v>106</v>
       </c>
@@ -6208,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:14">
       <c r="A117" s="3" t="s">
         <v>108</v>
       </c>
@@ -6387,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:14">
       <c r="A122" s="3" t="s">
         <v>112</v>
       </c>
@@ -6482,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:14">
       <c r="A125" s="3" t="s">
         <v>115</v>
       </c>
@@ -6577,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:14">
       <c r="A128" s="3" t="s">
         <v>117</v>
       </c>
@@ -6630,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:14">
       <c r="A130" s="3" t="s">
         <v>119</v>
       </c>
@@ -6809,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:14">
       <c r="A135" s="3" t="s">
         <v>122</v>
       </c>
@@ -6862,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:14">
       <c r="A137" s="3" t="s">
         <v>124</v>
       </c>
@@ -6981,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:14">
       <c r="A141" s="3" t="s">
         <v>127</v>
       </c>
@@ -7196,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:14">
       <c r="A147" s="3" t="s">
         <v>130</v>
       </c>
@@ -7249,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:14">
       <c r="A149" s="3" t="s">
         <v>131</v>
       </c>
@@ -7344,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:14">
       <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
@@ -7355,7 +6737,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:14">
       <c r="A153" s="6"/>
       <c r="B153" s="6" t="s">
         <v>135</v>
@@ -7364,7 +6746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:14">
       <c r="A154" s="6"/>
       <c r="B154" s="6" t="s">
         <v>136</v>
@@ -7373,7 +6755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:14">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
         <v>15</v>
@@ -7382,7 +6764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:14">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
         <v>137</v>
@@ -8852,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:14">
       <c r="A193" s="3" t="s">
         <v>162</v>
       </c>
@@ -9241,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:14">
       <c r="A203" s="3" t="s">
         <v>169</v>
       </c>
@@ -9378,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:14">
       <c r="A207" s="3" t="s">
         <v>172</v>
       </c>
@@ -10457,102 +9839,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:14">
       <c r="A234" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="7"/>
+      <c r="B235" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="4">
+      <c r="B236" s="3"/>
+      <c r="C236" s="4">
         <v>163</v>
       </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="1:14">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C235">
-        <v>7</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>0</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235">
-        <v>0</v>
-      </c>
-      <c r="K235">
-        <v>0</v>
-      </c>
-      <c r="L235">
-        <v>0</v>
-      </c>
-      <c r="M235">
-        <v>0</v>
-      </c>
-      <c r="N235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C236">
-        <v>3</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236">
-        <v>0</v>
-      </c>
-      <c r="K236">
-        <v>0</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-      <c r="M236">
-        <v>0</v>
-      </c>
-      <c r="N236">
-        <v>0</v>
-      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10560,9 +9906,6 @@
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237" t="s">
-        <v>18</v>
-      </c>
       <c r="G237">
         <v>0</v>
       </c>
@@ -10579,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -10591,28 +9934,25 @@
     <row r="238" spans="1:14">
       <c r="A238" s="6"/>
       <c r="B238" s="6" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238" t="s">
-        <v>18</v>
-      </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -10621,25 +9961,25 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M238">
         <v>0</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="6"/>
       <c r="B239" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -10648,13 +9988,13 @@
         <v>18</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -10675,10 +10015,10 @@
     <row r="240" spans="1:14">
       <c r="A240" s="6"/>
       <c r="B240" s="6" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -10717,7 +10057,7 @@
     <row r="241" spans="1:14">
       <c r="A241" s="6"/>
       <c r="B241" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -10759,7 +10099,7 @@
     <row r="242" spans="1:14">
       <c r="A242" s="6"/>
       <c r="B242" s="6" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -10801,13 +10141,13 @@
     <row r="243" spans="1:14">
       <c r="A243" s="6"/>
       <c r="B243" s="6" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="C243">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -10816,13 +10156,13 @@
         <v>18</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -10843,13 +10183,13 @@
     <row r="244" spans="1:14">
       <c r="A244" s="6"/>
       <c r="B244" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -10858,13 +10198,13 @@
         <v>18</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -10885,10 +10225,10 @@
     <row r="245" spans="1:14">
       <c r="A245" s="6"/>
       <c r="B245" s="6" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -10896,6 +10236,9 @@
       <c r="E245">
         <v>0</v>
       </c>
+      <c r="F245" t="s">
+        <v>18</v>
+      </c>
       <c r="G245">
         <v>0</v>
       </c>
@@ -10912,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M245">
         <v>0</v>
@@ -10924,7 +10267,7 @@
     <row r="246" spans="1:14">
       <c r="A246" s="6"/>
       <c r="B246" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -10935,6 +10278,9 @@
       <c r="E246">
         <v>0</v>
       </c>
+      <c r="F246" t="s">
+        <v>18</v>
+      </c>
       <c r="G246">
         <v>0</v>
       </c>
@@ -10951,22 +10297,22 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M246">
         <v>0</v>
       </c>
       <c r="N246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="6"/>
       <c r="B247" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -11002,10 +10348,10 @@
     <row r="248" spans="1:14">
       <c r="A248" s="6"/>
       <c r="B248" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -11041,7 +10387,7 @@
     <row r="249" spans="1:14">
       <c r="A249" s="6"/>
       <c r="B249" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -11080,10 +10426,10 @@
     <row r="250" spans="1:14">
       <c r="A250" s="6"/>
       <c r="B250" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C250">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11119,7 +10465,7 @@
     <row r="251" spans="1:14">
       <c r="A251" s="6"/>
       <c r="B251" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -11158,10 +10504,10 @@
     <row r="252" spans="1:14">
       <c r="A252" s="6"/>
       <c r="B252" s="6" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -11197,28 +10543,25 @@
     <row r="253" spans="1:14">
       <c r="A253" s="6"/>
       <c r="B253" s="6" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253" t="s">
-        <v>18</v>
-      </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -11227,40 +10570,37 @@
         <v>0</v>
       </c>
       <c r="L253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M253">
         <v>0</v>
       </c>
       <c r="N253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="6"/>
       <c r="B254" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
-      <c r="F254" t="s">
-        <v>18</v>
-      </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -11269,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M254">
         <v>0</v>
@@ -11281,7 +10621,7 @@
     <row r="255" spans="1:14">
       <c r="A255" s="6"/>
       <c r="B255" s="6" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -11311,22 +10651,22 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255">
         <v>0</v>
       </c>
       <c r="N255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="6"/>
       <c r="B256" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -11353,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <v>0</v>
@@ -11365,7 +10705,7 @@
     <row r="257" spans="1:14">
       <c r="A257" s="6"/>
       <c r="B257" s="6" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -11395,19 +10735,19 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M257">
         <v>0</v>
       </c>
       <c r="N257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="6"/>
       <c r="B258" s="6" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -11437,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -11449,7 +10789,7 @@
     <row r="259" spans="1:14">
       <c r="A259" s="6"/>
       <c r="B259" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -11479,19 +10819,19 @@
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M259">
         <v>0</v>
       </c>
       <c r="N259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="6"/>
       <c r="B260" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -11527,31 +10867,34 @@
         <v>0</v>
       </c>
       <c r="N260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="6"/>
       <c r="B261" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C261">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
+      <c r="F261" t="s">
+        <v>18</v>
+      </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -11572,25 +10915,28 @@
     <row r="262" spans="1:14">
       <c r="A262" s="6"/>
       <c r="B262" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
+      <c r="F262" t="s">
+        <v>18</v>
+      </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -11599,22 +10945,22 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262">
         <v>0</v>
       </c>
       <c r="N262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="6"/>
       <c r="B263" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C263">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11650,10 +10996,10 @@
     <row r="264" spans="1:14">
       <c r="A264" s="6"/>
       <c r="B264" s="6" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="C264">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11689,10 +11035,10 @@
     <row r="265" spans="1:14">
       <c r="A265" s="6"/>
       <c r="B265" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C265">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11728,10 +11074,10 @@
     <row r="266" spans="1:14">
       <c r="A266" s="6"/>
       <c r="B266" s="6" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11767,28 +11113,25 @@
     <row r="267" spans="1:14">
       <c r="A267" s="6"/>
       <c r="B267" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="F267" t="s">
-        <v>18</v>
-      </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -11797,22 +11140,22 @@
         <v>0</v>
       </c>
       <c r="L267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M267">
         <v>0</v>
       </c>
       <c r="N267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="6"/>
       <c r="B268" s="6" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C268">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -11848,25 +11191,28 @@
     <row r="269" spans="1:14">
       <c r="A269" s="6"/>
       <c r="B269" s="6" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="C269">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>0</v>
       </c>
+      <c r="F269" t="s">
+        <v>18</v>
+      </c>
       <c r="G269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -11875,22 +11221,22 @@
         <v>0</v>
       </c>
       <c r="L269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M269">
         <v>0</v>
       </c>
       <c r="N269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="6"/>
       <c r="B270" s="6" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C270">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11926,10 +11272,10 @@
     <row r="271" spans="1:14">
       <c r="A271" s="6"/>
       <c r="B271" s="6" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -11965,10 +11311,10 @@
     <row r="272" spans="1:14">
       <c r="A272" s="6"/>
       <c r="B272" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -12004,10 +11350,10 @@
     <row r="273" spans="1:14">
       <c r="A273" s="6"/>
       <c r="B273" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C273">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -12043,10 +11389,10 @@
     <row r="274" spans="1:14">
       <c r="A274" s="6"/>
       <c r="B274" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -12082,28 +11428,25 @@
     <row r="275" spans="1:14">
       <c r="A275" s="6"/>
       <c r="B275" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
-      <c r="F275" t="s">
-        <v>18</v>
-      </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -12124,28 +11467,25 @@
     <row r="276" spans="1:14">
       <c r="A276" s="6"/>
       <c r="B276" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276" t="s">
-        <v>18</v>
-      </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -12166,7 +11506,7 @@
     <row r="277" spans="1:14">
       <c r="A277" s="6"/>
       <c r="B277" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -12205,24 +11545,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="4">
-        <v>87</v>
-      </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
+    <row r="278" spans="1:14">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="6"/>
       <c r="B279" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -12259,51 +11630,23 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="6"/>
-      <c r="B280" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C280">
-        <v>8</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>0</v>
-      </c>
-      <c r="I280">
-        <v>0</v>
-      </c>
-      <c r="J280">
-        <v>0</v>
-      </c>
-      <c r="K280">
-        <v>0</v>
-      </c>
-      <c r="L280">
-        <v>0</v>
-      </c>
-      <c r="M280">
-        <v>0</v>
-      </c>
-      <c r="N280">
-        <v>0</v>
-      </c>
+      <c r="A280" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="4">
+        <v>87</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="6"/>
       <c r="B281" s="6" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -12336,16 +11679,16 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="6"/>
       <c r="B282" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -12381,25 +11724,28 @@
     <row r="283" spans="1:14">
       <c r="A283" s="6"/>
       <c r="B283" s="6" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C283">
         <v>4</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283">
         <v>0</v>
       </c>
+      <c r="F283" t="s">
+        <v>18</v>
+      </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -12414,13 +11760,13 @@
         <v>0</v>
       </c>
       <c r="N283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="6"/>
       <c r="B284" s="6" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -12459,28 +11805,25 @@
     <row r="285" spans="1:14">
       <c r="A285" s="6"/>
       <c r="B285" s="6" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0</v>
       </c>
-      <c r="F285" t="s">
-        <v>18</v>
-      </c>
       <c r="G285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -12501,28 +11844,25 @@
     <row r="286" spans="1:14">
       <c r="A286" s="6"/>
       <c r="B286" s="6" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
-      <c r="F286" t="s">
-        <v>18</v>
-      </c>
       <c r="G286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -12543,7 +11883,7 @@
     <row r="287" spans="1:14">
       <c r="A287" s="6"/>
       <c r="B287" s="6" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -12573,19 +11913,19 @@
         <v>0</v>
       </c>
       <c r="L287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M287">
         <v>0</v>
       </c>
       <c r="N287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="6"/>
       <c r="B288" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -12615,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="L288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -12627,25 +11967,28 @@
     <row r="289" spans="1:14">
       <c r="A289" s="6"/>
       <c r="B289" s="6" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289">
         <v>0</v>
       </c>
+      <c r="F289" t="s">
+        <v>18</v>
+      </c>
       <c r="G289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -12654,19 +11997,19 @@
         <v>0</v>
       </c>
       <c r="L289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M289">
         <v>0</v>
       </c>
       <c r="N289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="6"/>
       <c r="B290" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -12696,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="L290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M290">
         <v>0</v>
@@ -12708,28 +12051,25 @@
     <row r="291" spans="1:14">
       <c r="A291" s="6"/>
       <c r="B291" s="6" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291" t="s">
-        <v>18</v>
-      </c>
       <c r="G291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12738,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="L291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M291">
         <v>0</v>
@@ -12750,25 +12090,28 @@
     <row r="292" spans="1:14">
       <c r="A292" s="6"/>
       <c r="B292" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
         <v>0</v>
       </c>
+      <c r="F292" t="s">
+        <v>18</v>
+      </c>
       <c r="G292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -12789,7 +12132,7 @@
     <row r="293" spans="1:14">
       <c r="A293" s="6"/>
       <c r="B293" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -12819,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="L293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M293">
         <v>0</v>
@@ -12831,28 +12174,25 @@
     <row r="294" spans="1:14">
       <c r="A294" s="6"/>
       <c r="B294" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>0</v>
       </c>
-      <c r="F294" t="s">
-        <v>18</v>
-      </c>
       <c r="G294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294">
         <v>0</v>
@@ -12861,37 +12201,40 @@
         <v>0</v>
       </c>
       <c r="L294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M294">
         <v>0</v>
       </c>
       <c r="N294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="6"/>
       <c r="B295" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295">
         <v>0</v>
       </c>
+      <c r="F295" t="s">
+        <v>18</v>
+      </c>
       <c r="G295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -12912,7 +12255,7 @@
     <row r="296" spans="1:14">
       <c r="A296" s="6"/>
       <c r="B296" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -12954,28 +12297,25 @@
     <row r="297" spans="1:14">
       <c r="A297" s="6"/>
       <c r="B297" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
         <v>0</v>
       </c>
-      <c r="F297" t="s">
-        <v>18</v>
-      </c>
       <c r="G297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -12984,19 +12324,19 @@
         <v>0</v>
       </c>
       <c r="L297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
       <c r="N297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="6"/>
       <c r="B298" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -13026,37 +12366,40 @@
         <v>0</v>
       </c>
       <c r="L298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298">
         <v>0</v>
       </c>
       <c r="N298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="6"/>
       <c r="B299" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299">
         <v>0</v>
       </c>
+      <c r="F299" t="s">
+        <v>18</v>
+      </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -13065,19 +12408,19 @@
         <v>0</v>
       </c>
       <c r="L299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M299">
         <v>0</v>
       </c>
       <c r="N299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="6"/>
       <c r="B300" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -13107,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="L300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M300">
         <v>0</v>
@@ -13119,28 +12462,25 @@
     <row r="301" spans="1:14">
       <c r="A301" s="6"/>
       <c r="B301" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
-      <c r="F301" t="s">
-        <v>18</v>
-      </c>
       <c r="G301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -13149,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="L301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M301">
         <v>0</v>
@@ -13161,25 +12501,28 @@
     <row r="302" spans="1:14">
       <c r="A302" s="6"/>
       <c r="B302" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
+      <c r="F302" t="s">
+        <v>18</v>
+      </c>
       <c r="G302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -13188,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="L302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M302">
         <v>0</v>
@@ -13200,25 +12543,28 @@
     <row r="303" spans="1:14">
       <c r="A303" s="6"/>
       <c r="B303" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C303">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
+      <c r="F303" t="s">
+        <v>18</v>
+      </c>
       <c r="G303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
         <v>0</v>
@@ -13227,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="L303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M303">
         <v>0</v>
@@ -13239,28 +12585,25 @@
     <row r="304" spans="1:14">
       <c r="A304" s="6"/>
       <c r="B304" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304">
         <v>0</v>
       </c>
-      <c r="F304" t="s">
-        <v>18</v>
-      </c>
       <c r="G304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304">
         <v>0</v>
@@ -13269,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="L304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -13281,10 +12624,10 @@
     <row r="305" spans="1:14">
       <c r="A305" s="6"/>
       <c r="B305" s="6" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -13320,7 +12663,7 @@
     <row r="306" spans="1:14">
       <c r="A306" s="6"/>
       <c r="B306" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -13362,10 +12705,10 @@
     <row r="307" spans="1:14">
       <c r="A307" s="6"/>
       <c r="B307" s="6" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="C307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -13373,9 +12716,6 @@
       <c r="E307">
         <v>0</v>
       </c>
-      <c r="F307" t="s">
-        <v>18</v>
-      </c>
       <c r="G307">
         <v>0</v>
       </c>
@@ -13392,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="L307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M307">
         <v>0</v>
@@ -13404,25 +12744,28 @@
     <row r="308" spans="1:14">
       <c r="A308" s="6"/>
       <c r="B308" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C308">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
+      <c r="F308" t="s">
+        <v>18</v>
+      </c>
       <c r="G308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308">
         <v>0</v>
@@ -13431,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="L308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308">
         <v>0</v>
@@ -13443,10 +12786,10 @@
     <row r="309" spans="1:14">
       <c r="A309" s="6"/>
       <c r="B309" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -13454,6 +12797,9 @@
       <c r="E309">
         <v>0</v>
       </c>
+      <c r="F309" t="s">
+        <v>18</v>
+      </c>
       <c r="G309">
         <v>0</v>
       </c>
@@ -13470,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="L309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M309">
         <v>0</v>
@@ -13482,10 +12828,10 @@
     <row r="310" spans="1:14">
       <c r="A310" s="6"/>
       <c r="B310" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -13521,7 +12867,7 @@
     <row r="311" spans="1:14">
       <c r="A311" s="6"/>
       <c r="B311" s="6" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -13560,10 +12906,10 @@
     <row r="312" spans="1:14">
       <c r="A312" s="6"/>
       <c r="B312" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -13599,10 +12945,10 @@
     <row r="313" spans="1:14">
       <c r="A313" s="6"/>
       <c r="B313" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -13638,7 +12984,7 @@
     <row r="314" spans="1:14">
       <c r="A314" s="6"/>
       <c r="B314" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -13677,10 +13023,10 @@
     <row r="315" spans="1:14">
       <c r="A315" s="6"/>
       <c r="B315" s="6" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -13713,107 +13059,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C316" s="4">
-        <v>10</v>
-      </c>
-      <c r="D316" s="5"/>
-      <c r="E316" s="5"/>
+    <row r="316" spans="1:14">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="6"/>
       <c r="B317" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317">
         <v>0</v>
       </c>
-      <c r="F317" t="s">
-        <v>18</v>
-      </c>
       <c r="G317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K317">
         <v>0</v>
       </c>
       <c r="L317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M317">
         <v>0</v>
       </c>
       <c r="N317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C318">
-        <v>2</v>
-      </c>
-      <c r="D318">
-        <v>1</v>
-      </c>
-      <c r="E318">
-        <v>0</v>
-      </c>
-      <c r="F318" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318">
-        <v>1</v>
-      </c>
-      <c r="H318">
-        <v>1</v>
-      </c>
-      <c r="I318">
-        <v>1</v>
-      </c>
-      <c r="J318">
-        <v>0</v>
-      </c>
-      <c r="K318">
-        <v>0</v>
-      </c>
-      <c r="L318">
-        <v>1</v>
-      </c>
-      <c r="M318">
-        <v>0</v>
-      </c>
-      <c r="N318">
-        <v>1</v>
-      </c>
+      <c r="A318" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C318" s="4">
+        <v>10</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="6"/>
       <c r="B319" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -13837,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="J319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -13855,10 +13195,10 @@
     <row r="320" spans="1:14">
       <c r="A320" s="6"/>
       <c r="B320" s="6" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -13897,7 +13237,7 @@
     <row r="321" spans="1:14">
       <c r="A321" s="6"/>
       <c r="B321" s="6" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -13939,7 +13279,7 @@
     <row r="322" spans="1:14">
       <c r="A322" s="6"/>
       <c r="B322" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -13981,7 +13321,7 @@
     <row r="323" spans="1:14">
       <c r="A323" s="6"/>
       <c r="B323" s="6" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -14011,22 +13351,22 @@
         <v>0</v>
       </c>
       <c r="L323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M323">
         <v>0</v>
       </c>
       <c r="N323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="6"/>
       <c r="B324" s="6" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -14062,26 +13402,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C325" s="4">
-        <v>5</v>
-      </c>
-      <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
+    <row r="325" spans="1:14">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325" t="s">
+        <v>18</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="6"/>
       <c r="B326" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -14108,79 +13477,53 @@
         <v>0</v>
       </c>
       <c r="L326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M326">
         <v>0</v>
       </c>
       <c r="N326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
-      </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-      <c r="F327" t="s">
-        <v>18</v>
-      </c>
-      <c r="G327">
-        <v>1</v>
-      </c>
-      <c r="H327">
-        <v>1</v>
-      </c>
-      <c r="I327">
-        <v>1</v>
-      </c>
-      <c r="J327">
-        <v>0</v>
-      </c>
-      <c r="K327">
-        <v>0</v>
-      </c>
-      <c r="L327">
-        <v>1</v>
-      </c>
-      <c r="M327">
-        <v>0</v>
-      </c>
-      <c r="N327">
-        <v>0</v>
-      </c>
+      <c r="A327" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C327" s="4">
+        <v>5</v>
+      </c>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="6"/>
       <c r="B328" s="6" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328">
         <v>0</v>
       </c>
+      <c r="F328" t="s">
+        <v>18</v>
+      </c>
       <c r="G328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328">
         <v>0</v>
@@ -14201,7 +13544,7 @@
     <row r="329" spans="1:14">
       <c r="A329" s="6"/>
       <c r="B329" s="6" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -14240,23 +13583,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C330" s="4">
-        <v>124</v>
-      </c>
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
+    <row r="330" spans="1:14">
+      <c r="A330" s="6"/>
+      <c r="B330" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="6"/>
       <c r="B331" s="6" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -14296,57 +13665,28 @@
       </c>
     </row>
     <row r="332" spans="1:14">
-      <c r="A332" s="6"/>
-      <c r="B332" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C332">
-        <v>1</v>
-      </c>
-      <c r="D332">
-        <v>1</v>
-      </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-      <c r="F332" t="s">
-        <v>18</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="H332">
-        <v>1</v>
-      </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
-      <c r="J332">
-        <v>0</v>
-      </c>
-      <c r="K332">
-        <v>0</v>
-      </c>
-      <c r="L332">
-        <v>1</v>
-      </c>
-      <c r="M332">
-        <v>0</v>
-      </c>
-      <c r="N332">
-        <v>0</v>
-      </c>
+      <c r="A332" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C332" s="4">
+        <v>124</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="6"/>
       <c r="B333" s="6" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -14355,13 +13695,13 @@
         <v>18</v>
       </c>
       <c r="G333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333">
         <v>0</v>
@@ -14382,7 +13722,7 @@
     <row r="334" spans="1:14">
       <c r="A334" s="6"/>
       <c r="B334" s="6" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -14418,19 +13758,19 @@
         <v>0</v>
       </c>
       <c r="N334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="6"/>
       <c r="B335" s="6" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -14439,13 +13779,13 @@
         <v>18</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335">
         <v>0</v>
@@ -14454,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="L335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -14466,25 +13806,28 @@
     <row r="336" spans="1:14">
       <c r="A336" s="6"/>
       <c r="B336" s="6" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E336">
         <v>0</v>
       </c>
+      <c r="F336" t="s">
+        <v>18</v>
+      </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336">
         <v>0</v>
@@ -14493,37 +13836,40 @@
         <v>0</v>
       </c>
       <c r="L336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M336">
         <v>0</v>
       </c>
       <c r="N336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="6"/>
       <c r="B337" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E337">
         <v>0</v>
       </c>
+      <c r="F337" t="s">
+        <v>18</v>
+      </c>
       <c r="G337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -14544,10 +13890,10 @@
     <row r="338" spans="1:14">
       <c r="A338" s="6"/>
       <c r="B338" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C338">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -14583,10 +13929,10 @@
     <row r="339" spans="1:14">
       <c r="A339" s="6"/>
       <c r="B339" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C339">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -14594,9 +13940,6 @@
       <c r="E339">
         <v>0</v>
       </c>
-      <c r="F339" t="s">
-        <v>18</v>
-      </c>
       <c r="G339">
         <v>0</v>
       </c>
@@ -14613,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="L339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M339">
         <v>0</v>
@@ -14625,28 +13968,25 @@
     <row r="340" spans="1:14">
       <c r="A340" s="6"/>
       <c r="B340" s="6" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="C340">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340">
         <v>0</v>
       </c>
-      <c r="F340" t="s">
-        <v>18</v>
-      </c>
       <c r="G340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340">
         <v>0</v>
@@ -14655,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="L340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M340">
         <v>0</v>
@@ -14667,13 +14007,13 @@
     <row r="341" spans="1:14">
       <c r="A341" s="6"/>
       <c r="B341" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -14682,13 +14022,13 @@
         <v>18</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341">
         <v>0</v>
@@ -14703,16 +14043,16 @@
         <v>0</v>
       </c>
       <c r="N341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="6"/>
       <c r="B342" s="6" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -14745,13 +14085,13 @@
         <v>0</v>
       </c>
       <c r="N342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="6"/>
       <c r="B343" s="6" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -14793,7 +14133,7 @@
     <row r="344" spans="1:14">
       <c r="A344" s="6"/>
       <c r="B344" s="6" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -14826,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="M344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N344">
         <v>1</v>
@@ -14835,25 +14175,28 @@
     <row r="345" spans="1:14">
       <c r="A345" s="6"/>
       <c r="B345" s="6" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E345">
         <v>0</v>
       </c>
+      <c r="F345" t="s">
+        <v>18</v>
+      </c>
       <c r="G345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345">
         <v>0</v>
@@ -14862,37 +14205,40 @@
         <v>0</v>
       </c>
       <c r="L345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M345">
         <v>0</v>
       </c>
       <c r="N345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="6"/>
       <c r="B346" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346">
         <v>0</v>
       </c>
+      <c r="F346" t="s">
+        <v>18</v>
+      </c>
       <c r="G346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -14901,40 +14247,37 @@
         <v>0</v>
       </c>
       <c r="L346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="6"/>
       <c r="B347" s="6" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347">
         <v>0</v>
       </c>
-      <c r="F347" t="s">
-        <v>18</v>
-      </c>
       <c r="G347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347">
         <v>0</v>
@@ -14955,10 +14298,10 @@
     <row r="348" spans="1:14">
       <c r="A348" s="6"/>
       <c r="B348" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -14994,25 +14337,28 @@
     <row r="349" spans="1:14">
       <c r="A349" s="6"/>
       <c r="B349" s="6" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="C349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349">
         <v>0</v>
       </c>
+      <c r="F349" t="s">
+        <v>18</v>
+      </c>
       <c r="G349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349">
         <v>0</v>
@@ -15033,10 +14379,10 @@
     <row r="350" spans="1:14">
       <c r="A350" s="6"/>
       <c r="B350" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C350">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -15044,9 +14390,6 @@
       <c r="E350">
         <v>0</v>
       </c>
-      <c r="F350" t="s">
-        <v>18</v>
-      </c>
       <c r="G350">
         <v>0</v>
       </c>
@@ -15063,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="L350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M350">
         <v>0</v>
@@ -15075,28 +14418,25 @@
     <row r="351" spans="1:14">
       <c r="A351" s="6"/>
       <c r="B351" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351">
         <v>0</v>
       </c>
-      <c r="F351" t="s">
-        <v>18</v>
-      </c>
       <c r="G351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351">
         <v>0</v>
@@ -15105,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="L351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M351">
         <v>0</v>
@@ -15117,13 +14457,13 @@
     <row r="352" spans="1:14">
       <c r="A352" s="6"/>
       <c r="B352" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -15132,13 +14472,13 @@
         <v>18</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352">
         <v>0</v>
@@ -15159,25 +14499,28 @@
     <row r="353" spans="1:14">
       <c r="A353" s="6"/>
       <c r="B353" s="6" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="C353">
         <v>1</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353">
         <v>0</v>
       </c>
+      <c r="F353" t="s">
+        <v>18</v>
+      </c>
       <c r="G353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353">
         <v>0</v>
@@ -15186,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="L353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M353">
         <v>0</v>
@@ -15198,25 +14541,28 @@
     <row r="354" spans="1:14">
       <c r="A354" s="6"/>
       <c r="B354" s="6" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E354">
         <v>0</v>
       </c>
+      <c r="F354" t="s">
+        <v>18</v>
+      </c>
       <c r="G354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354">
         <v>0</v>
@@ -15225,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="L354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M354">
         <v>0</v>
@@ -15237,10 +14583,10 @@
     <row r="355" spans="1:14">
       <c r="A355" s="6"/>
       <c r="B355" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C355">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -15248,9 +14594,6 @@
       <c r="E355">
         <v>0</v>
       </c>
-      <c r="F355" t="s">
-        <v>18</v>
-      </c>
       <c r="G355">
         <v>0</v>
       </c>
@@ -15267,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="L355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M355">
         <v>0</v>
@@ -15279,10 +14622,10 @@
     <row r="356" spans="1:14">
       <c r="A356" s="6"/>
       <c r="B356" s="6" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="C356">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -15315,24 +14658,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B357" s="3"/>
-      <c r="C357" s="4">
+    <row r="357" spans="1:14">
+      <c r="A357" s="6"/>
+      <c r="B357" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C357">
         <v>9</v>
       </c>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357" t="s">
+        <v>18</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="6"/>
       <c r="B358" s="6" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="C358">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -15340,9 +14714,6 @@
       <c r="E358">
         <v>0</v>
       </c>
-      <c r="F358" t="s">
-        <v>18</v>
-      </c>
       <c r="G358">
         <v>0</v>
       </c>
@@ -15359,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="L358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M358">
         <v>0</v>
@@ -15369,57 +14740,26 @@
       </c>
     </row>
     <row r="359" spans="1:14">
-      <c r="A359" s="6"/>
-      <c r="B359" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
-      </c>
-      <c r="E359">
-        <v>0</v>
-      </c>
-      <c r="F359" t="s">
-        <v>18</v>
-      </c>
-      <c r="G359">
-        <v>1</v>
-      </c>
-      <c r="H359">
-        <v>1</v>
-      </c>
-      <c r="I359">
-        <v>1</v>
-      </c>
-      <c r="J359">
-        <v>0</v>
-      </c>
-      <c r="K359">
-        <v>0</v>
-      </c>
-      <c r="L359">
-        <v>1</v>
-      </c>
-      <c r="M359">
-        <v>0</v>
-      </c>
-      <c r="N359">
-        <v>1</v>
-      </c>
+      <c r="A359" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B359" s="3"/>
+      <c r="C359" s="4">
+        <v>9</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="6"/>
       <c r="B360" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -15428,13 +14768,13 @@
         <v>18</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360">
         <v>0</v>
@@ -15455,7 +14795,7 @@
     <row r="361" spans="1:14">
       <c r="A361" s="6"/>
       <c r="B361" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -15494,39 +14834,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B362" s="3"/>
-      <c r="C362" s="4">
-        <v>60</v>
-      </c>
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
+    <row r="362" spans="1:14">
+      <c r="A362" s="6"/>
+      <c r="B362" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362" t="s">
+        <v>18</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C363">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E363">
         <v>0</v>
       </c>
+      <c r="F363" t="s">
+        <v>18</v>
+      </c>
       <c r="G363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363">
         <v>0</v>
@@ -15535,82 +14909,48 @@
         <v>0</v>
       </c>
       <c r="L363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M363">
         <v>0</v>
       </c>
       <c r="N363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:14">
-      <c r="A364" s="6"/>
-      <c r="B364" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364">
-        <v>1</v>
-      </c>
-      <c r="E364">
-        <v>0</v>
-      </c>
-      <c r="F364" t="s">
-        <v>18</v>
-      </c>
-      <c r="G364">
-        <v>1</v>
-      </c>
-      <c r="H364">
-        <v>1</v>
-      </c>
-      <c r="I364">
-        <v>1</v>
-      </c>
-      <c r="J364">
-        <v>0</v>
-      </c>
-      <c r="K364">
-        <v>0</v>
-      </c>
-      <c r="L364">
-        <v>1</v>
-      </c>
-      <c r="M364">
-        <v>0</v>
-      </c>
-      <c r="N364">
-        <v>0</v>
-      </c>
+      <c r="A364" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B364" s="3"/>
+      <c r="C364" s="4">
+        <v>60</v>
+      </c>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="C365">
         <v>6</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>0</v>
       </c>
-      <c r="F365" t="s">
-        <v>18</v>
-      </c>
       <c r="G365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -15619,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="L365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M365">
         <v>0</v>
@@ -15631,25 +14971,28 @@
     <row r="366" spans="1:14">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C366">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E366">
         <v>0</v>
       </c>
+      <c r="F366" t="s">
+        <v>18</v>
+      </c>
       <c r="G366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -15670,10 +15013,10 @@
     <row r="367" spans="1:14">
       <c r="A367" s="6"/>
       <c r="B367" s="6" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C367">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -15712,80 +15055,109 @@
     <row r="368" spans="1:14">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C368">
+        <v>41</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
+      <c r="A369" s="6"/>
+      <c r="B369" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C369">
         <v>3</v>
       </c>
-      <c r="D368">
-        <v>1</v>
-      </c>
-      <c r="E368">
-        <v>0</v>
-      </c>
-      <c r="F368" t="s">
-        <v>18</v>
-      </c>
-      <c r="G368">
-        <v>1</v>
-      </c>
-      <c r="H368">
-        <v>1</v>
-      </c>
-      <c r="I368">
-        <v>1</v>
-      </c>
-      <c r="J368">
-        <v>0</v>
-      </c>
-      <c r="K368">
-        <v>0</v>
-      </c>
-      <c r="L368">
-        <v>1</v>
-      </c>
-      <c r="M368">
-        <v>0</v>
-      </c>
-      <c r="N368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C369" s="4">
-        <v>74</v>
-      </c>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>18</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C370">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E370">
         <v>0</v>
       </c>
+      <c r="F370" t="s">
+        <v>18</v>
+      </c>
       <c r="G370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370">
         <v>0</v>
@@ -15794,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="L370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M370">
         <v>0</v>
@@ -15804,51 +15176,25 @@
       </c>
     </row>
     <row r="371" spans="1:14">
-      <c r="A371" s="6"/>
-      <c r="B371" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C371">
-        <v>11</v>
-      </c>
-      <c r="D371">
-        <v>0</v>
-      </c>
-      <c r="E371">
-        <v>0</v>
-      </c>
-      <c r="G371">
-        <v>0</v>
-      </c>
-      <c r="H371">
-        <v>0</v>
-      </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
-        <v>0</v>
-      </c>
-      <c r="K371">
-        <v>0</v>
-      </c>
-      <c r="L371">
-        <v>0</v>
-      </c>
-      <c r="M371">
-        <v>0</v>
-      </c>
-      <c r="N371">
-        <v>0</v>
-      </c>
+      <c r="A371" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C371" s="4">
+        <v>74</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="6"/>
       <c r="B372" s="6" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="C372">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -15884,28 +15230,25 @@
     <row r="373" spans="1:14">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C373">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E373">
         <v>0</v>
       </c>
-      <c r="F373" t="s">
-        <v>18</v>
-      </c>
       <c r="G373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -15914,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="L373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M373">
         <v>0</v>
@@ -15926,10 +15269,10 @@
     <row r="374" spans="1:14">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="C374">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -15937,9 +15280,6 @@
       <c r="E374">
         <v>0</v>
       </c>
-      <c r="F374" t="s">
-        <v>18</v>
-      </c>
       <c r="G374">
         <v>0</v>
       </c>
@@ -15956,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="L374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M374">
         <v>0</v>
@@ -15968,25 +15308,28 @@
     <row r="375" spans="1:14">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C375">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E375">
         <v>0</v>
       </c>
+      <c r="F375" t="s">
+        <v>18</v>
+      </c>
       <c r="G375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375">
         <v>0</v>
@@ -15995,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="L375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M375">
         <v>0</v>
@@ -16007,10 +15350,10 @@
     <row r="376" spans="1:14">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="C376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -16018,6 +15361,9 @@
       <c r="E376">
         <v>0</v>
       </c>
+      <c r="F376" t="s">
+        <v>18</v>
+      </c>
       <c r="G376">
         <v>0</v>
       </c>
@@ -16034,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="L376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376">
         <v>0</v>
@@ -16046,10 +15392,10 @@
     <row r="377" spans="1:14">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -16057,9 +15403,6 @@
       <c r="E377">
         <v>0</v>
       </c>
-      <c r="F377" t="s">
-        <v>18</v>
-      </c>
       <c r="G377">
         <v>0</v>
       </c>
@@ -16076,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="L377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M377">
         <v>0</v>
@@ -16088,28 +15431,25 @@
     <row r="378" spans="1:14">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E378">
         <v>0</v>
       </c>
-      <c r="F378" t="s">
-        <v>18</v>
-      </c>
       <c r="G378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378">
         <v>0</v>
@@ -16118,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="L378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M378">
         <v>0</v>
@@ -16130,7 +15470,7 @@
     <row r="379" spans="1:14">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -16172,25 +15512,28 @@
     <row r="380" spans="1:14">
       <c r="A380" s="6"/>
       <c r="B380" s="6" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C380">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380">
         <v>0</v>
       </c>
+      <c r="F380" t="s">
+        <v>18</v>
+      </c>
       <c r="G380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380">
         <v>0</v>
@@ -16199,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M380">
         <v>0</v>
@@ -16211,60 +15554,91 @@
     <row r="381" spans="1:14">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381" t="s">
+        <v>18</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382" s="6"/>
+      <c r="B382" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C382">
         <v>6</v>
       </c>
-      <c r="D381">
-        <v>0</v>
-      </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
-      <c r="G381">
-        <v>0</v>
-      </c>
-      <c r="H381">
-        <v>0</v>
-      </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
-      <c r="J381">
-        <v>0</v>
-      </c>
-      <c r="K381">
-        <v>0</v>
-      </c>
-      <c r="L381">
-        <v>0</v>
-      </c>
-      <c r="M381">
-        <v>0</v>
-      </c>
-      <c r="N381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B382" s="3"/>
-      <c r="C382" s="4">
-        <v>32</v>
-      </c>
-      <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C383">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -16297,28 +15671,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-      <c r="F384" t="s">
-        <v>18</v>
-      </c>
-      <c r="L384">
-        <v>1</v>
-      </c>
+    <row r="384" spans="1:14">
+      <c r="A384" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B384" s="3"/>
+      <c r="C384" s="4">
+        <v>32</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="C385">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -16326,9 +15696,6 @@
       <c r="E385">
         <v>0</v>
       </c>
-      <c r="F385" t="s">
-        <v>18</v>
-      </c>
       <c r="G385">
         <v>0</v>
       </c>
@@ -16345,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="L385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M385">
         <v>0</v>
@@ -16357,52 +15724,31 @@
     <row r="386" spans="1:14">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C386">
-        <v>19</v>
-      </c>
-      <c r="D386">
-        <v>0</v>
-      </c>
-      <c r="E386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F386" t="s">
         <v>18</v>
       </c>
-      <c r="G386">
-        <v>0</v>
-      </c>
-      <c r="H386">
-        <v>0</v>
-      </c>
-      <c r="I386">
-        <v>0</v>
-      </c>
-      <c r="J386">
-        <v>0</v>
-      </c>
-      <c r="K386">
-        <v>0</v>
-      </c>
       <c r="L386">
         <v>1</v>
-      </c>
-      <c r="M386">
-        <v>0</v>
-      </c>
-      <c r="N386">
-        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
       </c>
       <c r="F387" t="s">
         <v>18</v>
@@ -16435,10 +15781,16 @@
     <row r="388" spans="1:14">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C388">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
       </c>
       <c r="F388" t="s">
         <v>18</v>
@@ -16468,30 +15820,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B389" s="3"/>
-      <c r="C389" s="4">
-        <v>25</v>
-      </c>
-      <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
+    <row r="389" spans="1:14">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="F389" t="s">
+        <v>18</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="C390">
-        <v>15</v>
-      </c>
-      <c r="D390">
-        <v>0</v>
-      </c>
-      <c r="E390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F390" t="s">
         <v>18</v>
@@ -16522,57 +15893,26 @@
       </c>
     </row>
     <row r="391" spans="1:14">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C391">
-        <v>6</v>
-      </c>
-      <c r="D391">
-        <v>1</v>
-      </c>
-      <c r="E391">
-        <v>0</v>
-      </c>
-      <c r="F391" t="s">
-        <v>18</v>
-      </c>
-      <c r="G391">
-        <v>1</v>
-      </c>
-      <c r="H391">
-        <v>1</v>
-      </c>
-      <c r="I391">
-        <v>1</v>
-      </c>
-      <c r="J391">
-        <v>0</v>
-      </c>
-      <c r="K391">
-        <v>0</v>
-      </c>
-      <c r="L391">
-        <v>1</v>
-      </c>
-      <c r="M391">
-        <v>0</v>
-      </c>
-      <c r="N391">
-        <v>0</v>
-      </c>
+      <c r="A391" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B391" s="3"/>
+      <c r="C391" s="4">
+        <v>25</v>
+      </c>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="C392">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -16581,13 +15921,13 @@
         <v>18</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392">
         <v>0</v>
@@ -16608,13 +15948,13 @@
     <row r="393" spans="1:14">
       <c r="A393" s="6"/>
       <c r="B393" s="6" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -16623,13 +15963,13 @@
         <v>18</v>
       </c>
       <c r="G393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393">
         <v>0</v>
@@ -16647,24 +15987,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B394" s="3"/>
-      <c r="C394" s="4">
-        <v>33</v>
-      </c>
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
+    <row r="394" spans="1:14">
+      <c r="A394" s="6"/>
+      <c r="B394" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C394">
+        <v>3</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394" t="s">
+        <v>18</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+      <c r="I394">
+        <v>1</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="C395">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -16701,54 +16072,23 @@
       </c>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396" s="6"/>
-      <c r="B396" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C396">
-        <v>3</v>
-      </c>
-      <c r="D396">
-        <v>0</v>
-      </c>
-      <c r="E396">
-        <v>0</v>
-      </c>
-      <c r="F396" t="s">
-        <v>18</v>
-      </c>
-      <c r="G396">
-        <v>0</v>
-      </c>
-      <c r="H396">
-        <v>0</v>
-      </c>
-      <c r="I396">
-        <v>0</v>
-      </c>
-      <c r="J396">
-        <v>0</v>
-      </c>
-      <c r="K396">
-        <v>0</v>
-      </c>
-      <c r="L396">
-        <v>1</v>
-      </c>
-      <c r="M396">
-        <v>0</v>
-      </c>
-      <c r="N396">
-        <v>0</v>
-      </c>
+      <c r="A396" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B396" s="3"/>
+      <c r="C396" s="4">
+        <v>33</v>
+      </c>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="C397">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -16787,13 +16127,13 @@
     <row r="398" spans="1:14">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="C398">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -16802,13 +16142,13 @@
         <v>18</v>
       </c>
       <c r="G398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398">
         <v>0</v>
@@ -16823,19 +16163,19 @@
         <v>0</v>
       </c>
       <c r="N398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C399">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -16844,13 +16184,13 @@
         <v>18</v>
       </c>
       <c r="G399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399">
         <v>0</v>
@@ -16868,140 +16208,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C400" s="4">
-        <v>367</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="1:3">
+    <row r="400" spans="1:14">
+      <c r="A400" s="6"/>
+      <c r="B400" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400" t="s">
+        <v>18</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="C401">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="6"/>
-      <c r="B402" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C402">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401" t="s">
+        <v>18</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14">
+      <c r="A402" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C402" s="4">
+        <v>367</v>
+      </c>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403" spans="1:14">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="C403">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="C404">
-        <v>1</v>
-      </c>
-      <c r="D404">
-        <v>0</v>
-      </c>
-      <c r="E404">
-        <v>0</v>
-      </c>
-      <c r="G404">
-        <v>0</v>
-      </c>
-      <c r="H404">
-        <v>0</v>
-      </c>
-      <c r="I404">
-        <v>0</v>
-      </c>
-      <c r="J404">
-        <v>0</v>
-      </c>
-      <c r="K404">
-        <v>0</v>
-      </c>
-      <c r="L404">
-        <v>0</v>
-      </c>
-      <c r="M404">
-        <v>0</v>
-      </c>
-      <c r="N404">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C405">
-        <v>1</v>
-      </c>
-      <c r="D405">
-        <v>0</v>
-      </c>
-      <c r="E405">
-        <v>0</v>
-      </c>
-      <c r="G405">
-        <v>0</v>
-      </c>
-      <c r="H405">
-        <v>0</v>
-      </c>
-      <c r="I405">
-        <v>0</v>
-      </c>
-      <c r="J405">
-        <v>0</v>
-      </c>
-      <c r="K405">
-        <v>0</v>
-      </c>
-      <c r="L405">
-        <v>0</v>
-      </c>
-      <c r="M405">
-        <v>0</v>
-      </c>
-      <c r="N405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14">
       <c r="A406" s="6"/>
       <c r="B406" s="6" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="C406">
         <v>1</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -17037,46 +16413,25 @@
     <row r="408" spans="1:14">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C408">
-        <v>10</v>
-      </c>
-      <c r="F408" t="s">
-        <v>16</v>
-      </c>
-      <c r="G408">
-        <v>0</v>
-      </c>
-      <c r="H408">
-        <v>0</v>
-      </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
-      <c r="J408">
-        <v>0</v>
-      </c>
-      <c r="K408">
-        <v>0</v>
-      </c>
-      <c r="L408">
-        <v>1</v>
-      </c>
-      <c r="M408">
-        <v>0</v>
-      </c>
-      <c r="N408">
         <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C409">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
       </c>
       <c r="G409">
         <v>0</v>
@@ -17106,16 +16461,13 @@
     <row r="410" spans="1:14">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C410">
-        <v>2</v>
-      </c>
-      <c r="D410">
-        <v>0</v>
-      </c>
-      <c r="E410">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F410" t="s">
+        <v>16</v>
       </c>
       <c r="G410">
         <v>0</v>
@@ -17133,28 +16485,22 @@
         <v>0</v>
       </c>
       <c r="L410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M410">
         <v>0</v>
       </c>
       <c r="N410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="C411">
-        <v>11</v>
-      </c>
-      <c r="D411">
-        <v>0</v>
-      </c>
-      <c r="E411">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -17184,7 +16530,7 @@
     <row r="412" spans="1:14">
       <c r="A412" s="6"/>
       <c r="B412" s="6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C412">
         <v>2</v>
@@ -17223,10 +16569,10 @@
     <row r="413" spans="1:14">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C413">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -17262,13 +16608,16 @@
     <row r="414" spans="1:14">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="s">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="C414">
         <v>2</v>
       </c>
-      <c r="F414" t="s">
-        <v>18</v>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -17286,10 +16635,10 @@
         <v>0</v>
       </c>
       <c r="L414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -17298,10 +16647,10 @@
     <row r="415" spans="1:14">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C415">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -17337,16 +16686,13 @@
     <row r="416" spans="1:14">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="C416">
         <v>2</v>
       </c>
-      <c r="D416">
-        <v>0</v>
-      </c>
-      <c r="E416">
-        <v>0</v>
+      <c r="F416" t="s">
+        <v>18</v>
       </c>
       <c r="G416">
         <v>0</v>
@@ -17364,10 +16710,10 @@
         <v>0</v>
       </c>
       <c r="L416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -17376,10 +16722,10 @@
     <row r="417" spans="1:14">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C417">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -17412,79 +16758,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:14">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C418">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C419">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="6"/>
       <c r="B420" s="6" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C420">
-        <v>1</v>
-      </c>
-      <c r="D420">
-        <v>0</v>
-      </c>
-      <c r="E420">
-        <v>0</v>
-      </c>
-      <c r="G420">
-        <v>0</v>
-      </c>
-      <c r="H420">
-        <v>0</v>
-      </c>
-      <c r="I420">
-        <v>0</v>
-      </c>
-      <c r="J420">
-        <v>0</v>
-      </c>
-      <c r="K420">
-        <v>0</v>
-      </c>
-      <c r="L420">
-        <v>0</v>
-      </c>
-      <c r="M420">
-        <v>0</v>
-      </c>
-      <c r="N420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14">
       <c r="A421" s="6"/>
       <c r="B421" s="6" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="6"/>
       <c r="B422" s="6" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="C422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -17520,49 +16896,19 @@
     <row r="423" spans="1:14">
       <c r="A423" s="6"/>
       <c r="B423" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C423">
-        <v>3</v>
-      </c>
-      <c r="D423">
-        <v>0</v>
-      </c>
-      <c r="E423">
-        <v>0</v>
-      </c>
-      <c r="G423">
-        <v>0</v>
-      </c>
-      <c r="H423">
-        <v>0</v>
-      </c>
-      <c r="I423">
-        <v>0</v>
-      </c>
-      <c r="J423">
-        <v>0</v>
-      </c>
-      <c r="K423">
-        <v>0</v>
-      </c>
-      <c r="L423">
-        <v>0</v>
-      </c>
-      <c r="M423">
-        <v>0</v>
-      </c>
-      <c r="N423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="6"/>
       <c r="B424" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C424">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -17598,10 +16944,10 @@
     <row r="425" spans="1:14">
       <c r="A425" s="6"/>
       <c r="B425" s="6" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="C425">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -17637,10 +16983,10 @@
     <row r="426" spans="1:14">
       <c r="A426" s="6"/>
       <c r="B426" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C426">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -17676,10 +17022,10 @@
     <row r="427" spans="1:14">
       <c r="A427" s="6"/>
       <c r="B427" s="6" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="C427">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -17715,10 +17061,10 @@
     <row r="428" spans="1:14">
       <c r="A428" s="6"/>
       <c r="B428" s="6" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C428">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -17726,9 +17072,6 @@
       <c r="E428">
         <v>0</v>
       </c>
-      <c r="F428" t="s">
-        <v>18</v>
-      </c>
       <c r="G428">
         <v>0</v>
       </c>
@@ -17745,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="L428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M428">
         <v>0</v>
@@ -17757,10 +17100,10 @@
     <row r="429" spans="1:14">
       <c r="A429" s="6"/>
       <c r="B429" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C429">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -17796,10 +17139,10 @@
     <row r="430" spans="1:14">
       <c r="A430" s="6"/>
       <c r="B430" s="6" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C430">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -17807,6 +17150,9 @@
       <c r="E430">
         <v>0</v>
       </c>
+      <c r="F430" t="s">
+        <v>18</v>
+      </c>
       <c r="G430">
         <v>0</v>
       </c>
@@ -17823,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="L430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M430">
         <v>0</v>
@@ -17835,10 +17181,10 @@
     <row r="431" spans="1:14">
       <c r="A431" s="6"/>
       <c r="B431" s="6" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="C431">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -17874,10 +17220,10 @@
     <row r="432" spans="1:14">
       <c r="A432" s="6"/>
       <c r="B432" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -17913,10 +17259,10 @@
     <row r="433" spans="1:14">
       <c r="A433" s="6"/>
       <c r="B433" s="6" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -17952,10 +17298,10 @@
     <row r="434" spans="1:14">
       <c r="A434" s="6"/>
       <c r="B434" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C434">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -17988,42 +17334,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B435" s="3"/>
-      <c r="C435" s="4">
-        <v>7</v>
-      </c>
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
+    <row r="435" spans="1:14">
+      <c r="A435" s="6"/>
+      <c r="B435" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="6"/>
       <c r="B436" s="6" t="s">
-        <v>307</v>
+        <v>87</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E436">
         <v>0</v>
       </c>
-      <c r="F436" t="s">
-        <v>18</v>
-      </c>
       <c r="G436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J436">
         <v>0</v>
@@ -18042,51 +17413,20 @@
       </c>
     </row>
     <row r="437" spans="1:14">
-      <c r="A437" s="6"/>
-      <c r="B437" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C437">
-        <v>1</v>
-      </c>
-      <c r="D437">
-        <v>1</v>
-      </c>
-      <c r="E437">
-        <v>0</v>
-      </c>
-      <c r="F437" t="s">
-        <v>18</v>
-      </c>
-      <c r="G437">
-        <v>1</v>
-      </c>
-      <c r="H437">
-        <v>1</v>
-      </c>
-      <c r="I437">
-        <v>1</v>
-      </c>
-      <c r="J437">
-        <v>0</v>
-      </c>
-      <c r="K437">
-        <v>0</v>
-      </c>
-      <c r="L437">
-        <v>1</v>
-      </c>
-      <c r="M437">
-        <v>0</v>
-      </c>
-      <c r="N437">
-        <v>0</v>
-      </c>
+      <c r="A437" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B437" s="3"/>
+      <c r="C437" s="4">
+        <v>7</v>
+      </c>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="6"/>
       <c r="B438" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -18128,7 +17468,7 @@
     <row r="439" spans="1:14">
       <c r="A439" s="6"/>
       <c r="B439" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -18161,7 +17501,7 @@
         <v>1</v>
       </c>
       <c r="M439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -18170,7 +17510,7 @@
     <row r="440" spans="1:14">
       <c r="A440" s="6"/>
       <c r="B440" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -18200,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="L440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M440">
         <v>0</v>
@@ -18212,7 +17552,7 @@
     <row r="441" spans="1:14">
       <c r="A441" s="6"/>
       <c r="B441" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -18245,7 +17585,7 @@
         <v>1</v>
       </c>
       <c r="M441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -18254,7 +17594,7 @@
     <row r="442" spans="1:14">
       <c r="A442" s="6"/>
       <c r="B442" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -18293,24 +17633,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B443" s="3"/>
-      <c r="C443" s="4">
-        <v>5</v>
-      </c>
-      <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
+    <row r="443" spans="1:14">
+      <c r="A443" s="6"/>
+      <c r="B443" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443" t="s">
+        <v>18</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
+        <v>1</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="6"/>
       <c r="B444" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -18347,54 +17718,23 @@
       </c>
     </row>
     <row r="445" spans="1:14">
-      <c r="A445" s="6"/>
-      <c r="B445" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C445">
-        <v>2</v>
-      </c>
-      <c r="D445">
-        <v>1</v>
-      </c>
-      <c r="E445">
-        <v>0</v>
-      </c>
-      <c r="F445" t="s">
-        <v>18</v>
-      </c>
-      <c r="G445">
-        <v>1</v>
-      </c>
-      <c r="H445">
-        <v>1</v>
-      </c>
-      <c r="I445">
-        <v>1</v>
-      </c>
-      <c r="J445">
-        <v>0</v>
-      </c>
-      <c r="K445">
-        <v>0</v>
-      </c>
-      <c r="L445">
-        <v>1</v>
-      </c>
-      <c r="M445">
-        <v>0</v>
-      </c>
-      <c r="N445">
-        <v>0</v>
-      </c>
+      <c r="A445" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B445" s="3"/>
+      <c r="C445" s="4">
+        <v>5</v>
+      </c>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="6"/>
       <c r="B446" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -18421,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="L446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M446">
         <v>0</v>
@@ -18430,116 +17770,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
-      <c r="A447" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B447" s="3"/>
-      <c r="C447" s="4">
+    <row r="447" spans="1:14">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C447">
         <v>2</v>
       </c>
-      <c r="D447" s="5"/>
-      <c r="E447" s="5"/>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447" t="s">
+        <v>18</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+      <c r="I447">
+        <v>1</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="6"/>
       <c r="B448" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448" t="s">
+        <v>18</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>1</v>
+      </c>
+      <c r="I448">
+        <v>1</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14">
+      <c r="A449" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B449" s="3"/>
+      <c r="C449" s="4">
+        <v>2</v>
+      </c>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+    </row>
+    <row r="450" spans="1:14">
+      <c r="A450" s="6"/>
+      <c r="B450" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C448">
-        <v>1</v>
-      </c>
-      <c r="D448">
-        <v>1</v>
-      </c>
-      <c r="E448">
-        <v>0</v>
-      </c>
-      <c r="F448" t="s">
-        <v>18</v>
-      </c>
-      <c r="G448">
-        <v>1</v>
-      </c>
-      <c r="H448">
-        <v>1</v>
-      </c>
-      <c r="I448">
-        <v>1</v>
-      </c>
-      <c r="J448">
-        <v>0</v>
-      </c>
-      <c r="K448">
-        <v>0</v>
-      </c>
-      <c r="L448">
-        <v>1</v>
-      </c>
-      <c r="M448">
-        <v>0</v>
-      </c>
-      <c r="N448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14">
-      <c r="A449" s="6"/>
-      <c r="B449" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C449">
-        <v>1</v>
-      </c>
-      <c r="D449">
-        <v>1</v>
-      </c>
-      <c r="E449">
-        <v>0</v>
-      </c>
-      <c r="F449" t="s">
-        <v>18</v>
-      </c>
-      <c r="G449">
-        <v>1</v>
-      </c>
-      <c r="H449">
-        <v>1</v>
-      </c>
-      <c r="I449">
-        <v>1</v>
-      </c>
-      <c r="J449">
-        <v>0</v>
-      </c>
-      <c r="K449">
-        <v>0</v>
-      </c>
-      <c r="L449">
-        <v>1</v>
-      </c>
-      <c r="M449">
-        <v>0</v>
-      </c>
-      <c r="N449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B450" s="3"/>
-      <c r="C450" s="4">
-        <v>20</v>
-      </c>
-      <c r="D450" s="5"/>
-      <c r="E450" s="5"/>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450" t="s">
+        <v>18</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>1</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="6"/>
       <c r="B451" s="6" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -18575,55 +17946,24 @@
         <v>0</v>
       </c>
       <c r="N451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:14">
-      <c r="A452" s="6"/>
-      <c r="B452" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C452">
-        <v>4</v>
-      </c>
-      <c r="D452">
-        <v>1</v>
-      </c>
-      <c r="E452">
-        <v>0</v>
-      </c>
-      <c r="F452" t="s">
-        <v>18</v>
-      </c>
-      <c r="G452">
-        <v>1</v>
-      </c>
-      <c r="H452">
-        <v>1</v>
-      </c>
-      <c r="I452">
-        <v>1</v>
-      </c>
-      <c r="J452">
-        <v>0</v>
-      </c>
-      <c r="K452">
-        <v>0</v>
-      </c>
-      <c r="L452">
-        <v>1</v>
-      </c>
-      <c r="M452">
-        <v>0</v>
-      </c>
-      <c r="N452">
-        <v>0</v>
-      </c>
+      <c r="A452" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B452" s="3"/>
+      <c r="C452" s="4">
+        <v>20</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="6"/>
       <c r="B453" s="6" t="s">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -18653,22 +17993,22 @@
         <v>0</v>
       </c>
       <c r="L453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M453">
         <v>0</v>
       </c>
       <c r="N453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="6"/>
       <c r="B454" s="6" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -18695,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="L454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M454">
         <v>0</v>
@@ -18707,10 +18047,10 @@
     <row r="455" spans="1:14">
       <c r="A455" s="6"/>
       <c r="B455" s="6" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="C455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -18749,7 +18089,7 @@
     <row r="456" spans="1:14">
       <c r="A456" s="6"/>
       <c r="B456" s="6" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -18779,22 +18119,22 @@
         <v>0</v>
       </c>
       <c r="L456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M456">
         <v>0</v>
       </c>
       <c r="N456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="6"/>
       <c r="B457" s="6" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -18821,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="L457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M457">
         <v>0</v>
@@ -18833,10 +18173,10 @@
     <row r="458" spans="1:14">
       <c r="A458" s="6"/>
       <c r="B458" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C458">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -18869,16 +18209,16 @@
         <v>0</v>
       </c>
       <c r="N458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="6"/>
       <c r="B459" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -18914,41 +18254,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C460" s="4">
-        <v>44</v>
-      </c>
-      <c r="D460" s="5"/>
-      <c r="E460" s="5"/>
+    <row r="460" spans="1:14">
+      <c r="A460" s="6"/>
+      <c r="B460" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C460">
+        <v>6</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460" t="s">
+        <v>18</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>1</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>1</v>
+      </c>
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="6"/>
       <c r="B461" s="6" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="C461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461">
         <v>0</v>
       </c>
+      <c r="F461" t="s">
+        <v>18</v>
+      </c>
       <c r="G461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461">
         <v>0</v>
@@ -18957,61 +18329,32 @@
         <v>0</v>
       </c>
       <c r="L461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M461">
         <v>0</v>
       </c>
       <c r="N461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:14">
-      <c r="A462" s="6"/>
-      <c r="B462" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C462">
-        <v>2</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
-      <c r="E462">
-        <v>0</v>
-      </c>
-      <c r="F462" t="s">
-        <v>18</v>
-      </c>
-      <c r="G462">
-        <v>0</v>
-      </c>
-      <c r="H462">
-        <v>0</v>
-      </c>
-      <c r="I462">
-        <v>0</v>
-      </c>
-      <c r="J462">
-        <v>0</v>
-      </c>
-      <c r="K462">
-        <v>0</v>
-      </c>
-      <c r="L462">
-        <v>1</v>
-      </c>
-      <c r="M462">
-        <v>0</v>
-      </c>
-      <c r="N462">
-        <v>0</v>
-      </c>
+      <c r="A462" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C462" s="4">
+        <v>44</v>
+      </c>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="6"/>
       <c r="B463" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -19044,13 +18387,13 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="6"/>
       <c r="B464" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C464">
         <v>2</v>
@@ -19092,10 +18435,10 @@
     <row r="465" spans="1:14">
       <c r="A465" s="6"/>
       <c r="B465" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -19131,10 +18474,10 @@
     <row r="466" spans="1:14">
       <c r="A466" s="6"/>
       <c r="B466" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C466">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -19142,6 +18485,9 @@
       <c r="E466">
         <v>0</v>
       </c>
+      <c r="F466" t="s">
+        <v>18</v>
+      </c>
       <c r="G466">
         <v>0</v>
       </c>
@@ -19158,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="L466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M466">
         <v>0</v>
@@ -19170,10 +18516,10 @@
     <row r="467" spans="1:14">
       <c r="A467" s="6"/>
       <c r="B467" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C467">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -19209,10 +18555,10 @@
     <row r="468" spans="1:14">
       <c r="A468" s="6"/>
       <c r="B468" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D468">
         <v>0</v>
@@ -19248,10 +18594,10 @@
     <row r="469" spans="1:14">
       <c r="A469" s="6"/>
       <c r="B469" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C469">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -19287,10 +18633,10 @@
     <row r="470" spans="1:14">
       <c r="A470" s="6"/>
       <c r="B470" s="6" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C470">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -19298,9 +18644,6 @@
       <c r="E470">
         <v>0</v>
       </c>
-      <c r="F470" t="s">
-        <v>18</v>
-      </c>
       <c r="G470">
         <v>0</v>
       </c>
@@ -19317,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="L470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M470">
         <v>0</v>
@@ -19329,10 +18672,10 @@
     <row r="471" spans="1:14">
       <c r="A471" s="6"/>
       <c r="B471" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C471">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -19368,10 +18711,10 @@
     <row r="472" spans="1:14">
       <c r="A472" s="6"/>
       <c r="B472" s="6" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -19379,6 +18722,9 @@
       <c r="E472">
         <v>0</v>
       </c>
+      <c r="F472" t="s">
+        <v>18</v>
+      </c>
       <c r="G472">
         <v>0</v>
       </c>
@@ -19395,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="L472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M472">
         <v>0</v>
@@ -19407,10 +18753,10 @@
     <row r="473" spans="1:14">
       <c r="A473" s="6"/>
       <c r="B473" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -19446,10 +18792,10 @@
     <row r="474" spans="1:14">
       <c r="A474" s="6"/>
       <c r="B474" s="6" t="s">
-        <v>88</v>
+        <v>323</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -19485,7 +18831,7 @@
     <row r="475" spans="1:14">
       <c r="A475" s="6"/>
       <c r="B475" s="6" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -19521,44 +18867,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C476" s="4">
-        <v>6</v>
-      </c>
-      <c r="D476" s="5"/>
-      <c r="E476" s="5"/>
+    <row r="476" spans="1:14">
+      <c r="A476" s="6"/>
+      <c r="B476" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+      <c r="M476">
+        <v>0</v>
+      </c>
+      <c r="N476">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="6"/>
       <c r="B477" s="6" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E477">
         <v>0</v>
       </c>
-      <c r="F477" t="s">
-        <v>18</v>
-      </c>
       <c r="G477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J477">
         <v>0</v>
@@ -19567,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="L477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M477">
         <v>0</v>
@@ -19577,54 +18946,25 @@
       </c>
     </row>
     <row r="478" spans="1:14">
-      <c r="A478" s="6"/>
-      <c r="B478" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C478">
-        <v>2</v>
-      </c>
-      <c r="D478">
-        <v>1</v>
-      </c>
-      <c r="E478">
-        <v>0</v>
-      </c>
-      <c r="F478" t="s">
-        <v>18</v>
-      </c>
-      <c r="G478">
-        <v>1</v>
-      </c>
-      <c r="H478">
-        <v>1</v>
-      </c>
-      <c r="I478">
-        <v>1</v>
-      </c>
-      <c r="J478">
-        <v>0</v>
-      </c>
-      <c r="K478">
-        <v>0</v>
-      </c>
-      <c r="L478">
-        <v>1</v>
-      </c>
-      <c r="M478">
-        <v>0</v>
-      </c>
-      <c r="N478">
-        <v>0</v>
-      </c>
+      <c r="A478" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C478" s="4">
+        <v>6</v>
+      </c>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="6"/>
       <c r="B479" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -19651,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="L479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M479">
         <v>0</v>
@@ -19663,10 +19003,10 @@
     <row r="480" spans="1:14">
       <c r="A480" s="6"/>
       <c r="B480" s="6" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="C480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -19702,41 +19042,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
-      <c r="A481" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C481" s="4">
-        <v>57</v>
-      </c>
-      <c r="D481" s="5"/>
-      <c r="E481" s="5"/>
+    <row r="481" spans="1:14">
+      <c r="A481" s="6"/>
+      <c r="B481" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481" t="s">
+        <v>18</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>1</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+      <c r="M481">
+        <v>0</v>
+      </c>
+      <c r="N481">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="6"/>
       <c r="B482" s="6" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C482">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
         <v>0</v>
       </c>
+      <c r="F482" t="s">
+        <v>18</v>
+      </c>
       <c r="G482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J482">
         <v>0</v>
@@ -19745,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="L482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M482">
         <v>0</v>
@@ -19755,51 +19127,25 @@
       </c>
     </row>
     <row r="483" spans="1:14">
-      <c r="A483" s="6"/>
-      <c r="B483" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C483">
-        <v>3</v>
-      </c>
-      <c r="D483">
-        <v>0</v>
-      </c>
-      <c r="E483">
-        <v>0</v>
-      </c>
-      <c r="G483">
-        <v>0</v>
-      </c>
-      <c r="H483">
-        <v>0</v>
-      </c>
-      <c r="I483">
-        <v>0</v>
-      </c>
-      <c r="J483">
-        <v>0</v>
-      </c>
-      <c r="K483">
-        <v>0</v>
-      </c>
-      <c r="L483">
-        <v>0</v>
-      </c>
-      <c r="M483">
-        <v>0</v>
-      </c>
-      <c r="N483">
-        <v>0</v>
-      </c>
+      <c r="A483" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C483" s="4">
+        <v>57</v>
+      </c>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="6"/>
       <c r="B484" s="6" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="C484">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -19835,10 +19181,10 @@
     <row r="485" spans="1:14">
       <c r="A485" s="6"/>
       <c r="B485" s="6" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="C485">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -19874,10 +19220,10 @@
     <row r="486" spans="1:14">
       <c r="A486" s="6"/>
       <c r="B486" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C486">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -19913,10 +19259,10 @@
     <row r="487" spans="1:14">
       <c r="A487" s="6"/>
       <c r="B487" s="6" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -19952,28 +19298,25 @@
     <row r="488" spans="1:14">
       <c r="A488" s="6"/>
       <c r="B488" s="6" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E488">
         <v>0</v>
       </c>
-      <c r="F488" t="s">
-        <v>18</v>
-      </c>
       <c r="G488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J488">
         <v>0</v>
@@ -19982,22 +19325,22 @@
         <v>0</v>
       </c>
       <c r="L488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M488">
         <v>0</v>
       </c>
       <c r="N488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="6"/>
       <c r="B489" s="6" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="C489">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -20033,25 +19376,28 @@
     <row r="490" spans="1:14">
       <c r="A490" s="6"/>
       <c r="B490" s="6" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="C490">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E490">
         <v>0</v>
       </c>
+      <c r="F490" t="s">
+        <v>18</v>
+      </c>
       <c r="G490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J490">
         <v>0</v>
@@ -20060,22 +19406,22 @@
         <v>0</v>
       </c>
       <c r="L490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M490">
         <v>0</v>
       </c>
       <c r="N490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="6"/>
       <c r="B491" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C491">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -20111,10 +19457,10 @@
     <row r="492" spans="1:14">
       <c r="A492" s="6"/>
       <c r="B492" s="6" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="C492">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -20147,26 +19493,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C493" s="4">
-        <v>19</v>
-      </c>
-      <c r="D493" s="5"/>
-      <c r="E493" s="5"/>
+    <row r="493" spans="1:14">
+      <c r="A493" s="6"/>
+      <c r="B493" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="6"/>
       <c r="B494" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -20200,54 +19572,25 @@
       </c>
     </row>
     <row r="495" spans="1:14">
-      <c r="A495" s="6"/>
-      <c r="B495" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C495">
-        <v>1</v>
-      </c>
-      <c r="D495">
-        <v>1</v>
-      </c>
-      <c r="E495">
-        <v>0</v>
-      </c>
-      <c r="F495" t="s">
-        <v>18</v>
-      </c>
-      <c r="G495">
-        <v>1</v>
-      </c>
-      <c r="H495">
-        <v>1</v>
-      </c>
-      <c r="I495">
-        <v>1</v>
-      </c>
-      <c r="J495">
-        <v>0</v>
-      </c>
-      <c r="K495">
-        <v>0</v>
-      </c>
-      <c r="L495">
-        <v>0</v>
-      </c>
-      <c r="M495">
-        <v>0</v>
-      </c>
-      <c r="N495">
-        <v>0</v>
-      </c>
+      <c r="A495" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C495" s="4">
+        <v>19</v>
+      </c>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="6"/>
       <c r="B496" s="6" t="s">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="C496">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -20283,7 +19626,7 @@
     <row r="497" spans="1:14">
       <c r="A497" s="6"/>
       <c r="B497" s="6" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -20313,22 +19656,22 @@
         <v>0</v>
       </c>
       <c r="L497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M497">
         <v>0</v>
       </c>
       <c r="N497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="6"/>
       <c r="B498" s="6" t="s">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="C498">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -20361,67 +19704,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
-      <c r="A499" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C499" s="4">
-        <v>1</v>
-      </c>
-      <c r="D499" s="5"/>
-      <c r="E499" s="5"/>
+    <row r="499" spans="1:14">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499" t="s">
+        <v>18</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>1</v>
+      </c>
+      <c r="I499">
+        <v>1</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>1</v>
+      </c>
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>1</v>
+      </c>
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="6"/>
       <c r="B500" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14">
+      <c r="A501" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C501" s="4">
+        <v>1</v>
+      </c>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+    </row>
+    <row r="502" spans="1:14">
+      <c r="A502" s="6"/>
+      <c r="B502" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C500">
-        <v>1</v>
-      </c>
-      <c r="D500">
-        <v>1</v>
-      </c>
-      <c r="E500">
-        <v>0</v>
-      </c>
-      <c r="F500" t="s">
-        <v>18</v>
-      </c>
-      <c r="G500">
-        <v>1</v>
-      </c>
-      <c r="H500">
-        <v>1</v>
-      </c>
-      <c r="I500">
-        <v>1</v>
-      </c>
-      <c r="J500">
-        <v>0</v>
-      </c>
-      <c r="K500">
-        <v>0</v>
-      </c>
-      <c r="L500">
-        <v>1</v>
-      </c>
-      <c r="M500">
-        <v>0</v>
-      </c>
-      <c r="N500">
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502" t="s">
+        <v>18</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>1</v>
+      </c>
+      <c r="I502">
+        <v>1</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>1</v>
+      </c>
+      <c r="M502">
+        <v>0</v>
+      </c>
+      <c r="N502">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N500">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:N502" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Main Modul/info.xlsx
+++ b/Main Modul/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="343">
   <si>
     <t>Отдел</t>
   </si>
@@ -1040,6 +1040,12 @@
   </si>
   <si>
     <t>Главный специалист по охране труда и пожарной безопасности</t>
+  </si>
+  <si>
+    <t>ООАРП - СУПЕРМАРКЕТЫ</t>
+  </si>
+  <si>
+    <t>МЕНЕДЖЕРЫ ПО ЗАКУПУ (РЦ)</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1058,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1091,13 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1556,31 +1569,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,119 +1599,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1732,6 +1745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,18 +2065,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N511"/>
+  <dimension ref="A1:N516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B300" sqref="B300"/>
+      <selection pane="bottomLeft" activeCell="B517" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="63.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
@@ -12355,7 +12369,7 @@
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:14">
       <c r="A285" s="7"/>
       <c r="B285" s="10" t="s">
         <v>230</v>
@@ -12363,6 +12377,30 @@
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="6"/>
@@ -13562,6 +13600,9 @@
       </c>
       <c r="E315">
         <v>0</v>
+      </c>
+      <c r="F315" t="s">
+        <v>18</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -20613,6 +20654,16 @@
       </c>
       <c r="N511">
         <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/Main Modul/info.xlsx
+++ b/Main Modul/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITLAB\Python\ACS_BINAR.test\Main Modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF753FE-7F19-441F-89B3-AD2B7BB2700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D6AA4-CE8E-4614-8133-41E427D62039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="344">
   <si>
     <t>Отдел</t>
   </si>
@@ -1061,7 +1061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,24 +1074,28 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -1100,6 +1104,7 @@
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1448,11 +1453,11 @@
   <dimension ref="A1:N517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
@@ -1463,7 +1468,7 @@
     <col min="7" max="14" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1523,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -1560,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>17</v>
@@ -1602,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>19</v>
@@ -1644,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -1683,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1725,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +1741,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>23</v>
@@ -1778,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1794,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -1831,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1842,7 +1847,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1884,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1926,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1968,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>29</v>
@@ -2010,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -2052,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -2094,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>32</v>
@@ -2136,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
@@ -2178,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>34</v>
@@ -2220,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
@@ -2262,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2278,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>37</v>
@@ -2315,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>38</v>
@@ -2357,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>40</v>
@@ -2410,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2421,7 +2426,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>37</v>
@@ -2463,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>42</v>
@@ -2505,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
@@ -2516,7 +2521,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>44</v>
@@ -2558,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>37</v>
@@ -2600,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>45</v>
@@ -2642,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -2653,7 +2658,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>19</v>
@@ -2695,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>44</v>
@@ -2737,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>37</v>
@@ -2779,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>45</v>
@@ -2821,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
@@ -2863,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
         <v>48</v>
@@ -2905,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>49</v>
@@ -2947,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
         <v>50</v>
@@ -2989,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -3000,7 +3005,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>52</v>
@@ -3042,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
         <v>53</v>
@@ -3084,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>54</v>
@@ -3126,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
         <v>55</v>
@@ -3168,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -3179,7 +3184,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>52</v>
@@ -3221,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
         <v>57</v>
@@ -3263,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
         <v>53</v>
@@ -3305,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>54</v>
@@ -3347,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -3358,7 +3363,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>59</v>
@@ -3400,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>60</v>
@@ -3442,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>61</v>
@@ -3481,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>42</v>
@@ -3523,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
         <v>62</v>
@@ -3562,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>63</v>
@@ -3604,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
         <v>64</v>
@@ -3643,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
         <v>65</v>
@@ -3682,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
         <v>20</v>
@@ -3721,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>66</v>
@@ -3760,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>67</v>
@@ -3799,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -3810,7 +3815,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
         <v>69</v>
@@ -3849,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>70</v>
@@ -3861,13 +3866,13 @@
         <v>18</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3885,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>71</v>
@@ -3921,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>72</v>
@@ -3960,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
         <v>73</v>
@@ -3999,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
         <v>61</v>
@@ -4038,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
         <v>74</v>
@@ -4074,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
         <v>62</v>
@@ -4113,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
         <v>75</v>
@@ -4155,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
         <v>76</v>
@@ -4194,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
         <v>77</v>
@@ -4233,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
         <v>78</v>
@@ -4272,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
         <v>79</v>
@@ -4311,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
         <v>80</v>
@@ -4350,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
         <v>81</v>
@@ -4389,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
         <v>20</v>
@@ -4428,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
         <v>82</v>
@@ -4467,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
         <v>83</v>
@@ -4506,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
         <v>84</v>
@@ -4545,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
         <v>85</v>
@@ -4584,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
         <v>86</v>
@@ -4626,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
         <v>87</v>
@@ -4668,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6" t="s">
         <v>88</v>
@@ -4707,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
         <v>89</v>
@@ -4746,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
         <v>90</v>
@@ -4785,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -4796,7 +4801,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
         <v>15</v>
@@ -4838,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
         <v>92</v>
@@ -4880,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6" t="s">
         <v>93</v>
@@ -4919,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
         <v>94</v>
@@ -4958,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
         <v>20</v>
@@ -4997,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
         <v>95</v>
@@ -5039,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
         <v>96</v>
@@ -5078,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
         <v>21</v>
@@ -5117,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
         <v>97</v>
@@ -5156,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
         <v>98</v>
@@ -5195,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
         <v>99</v>
@@ -5234,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
         <v>100</v>
@@ -5273,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
@@ -5284,7 +5289,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6" t="s">
         <v>102</v>
@@ -5323,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6" t="s">
         <v>103</v>
@@ -5362,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
         <v>74</v>
@@ -5404,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -5446,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>105</v>
       </c>
@@ -5457,7 +5462,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
         <v>19</v>
@@ -5499,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6" t="s">
         <v>92</v>
@@ -5541,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>106</v>
       </c>
@@ -5552,7 +5557,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6" t="s">
         <v>42</v>
@@ -5594,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6" t="s">
         <v>48</v>
@@ -5636,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -5647,7 +5652,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6" t="s">
         <v>108</v>
@@ -5689,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>109</v>
       </c>
@@ -5700,7 +5705,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
         <v>23</v>
@@ -5742,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
         <v>110</v>
@@ -5784,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6" t="s">
         <v>111</v>
@@ -5826,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6" t="s">
         <v>112</v>
@@ -5868,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>113</v>
       </c>
@@ -5879,7 +5884,7 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6" t="s">
         <v>114</v>
@@ -5921,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6" t="s">
         <v>115</v>
@@ -5963,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -5974,7 +5979,7 @@
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6" t="s">
         <v>114</v>
@@ -6016,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6" t="s">
         <v>117</v>
@@ -6058,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>118</v>
       </c>
@@ -6069,7 +6074,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6" t="s">
         <v>119</v>
@@ -6111,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>120</v>
       </c>
@@ -6122,7 +6127,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
         <v>121</v>
@@ -6164,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6" t="s">
         <v>122</v>
@@ -6206,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
         <v>42</v>
@@ -6248,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6" t="s">
         <v>31</v>
@@ -6290,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>123</v>
       </c>
@@ -6301,7 +6306,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6" t="s">
         <v>124</v>
@@ -6343,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>125</v>
       </c>
@@ -6354,7 +6359,7 @@
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6" t="s">
         <v>126</v>
@@ -6390,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6" t="s">
         <v>127</v>
@@ -6426,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6" t="s">
         <v>33</v>
@@ -6462,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>128</v>
       </c>
@@ -6473,7 +6478,7 @@
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6" t="s">
         <v>69</v>
@@ -6512,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6" t="s">
         <v>129</v>
@@ -6551,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6" t="s">
         <v>71</v>
@@ -6593,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6" t="s">
         <v>130</v>
@@ -6635,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6" t="s">
         <v>104</v>
@@ -6677,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>131</v>
       </c>
@@ -6688,7 +6693,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6" t="s">
         <v>23</v>
@@ -6730,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>132</v>
       </c>
@@ -6741,7 +6746,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6" t="s">
         <v>133</v>
@@ -6783,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6" t="s">
         <v>134</v>
@@ -6825,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>135</v>
       </c>
@@ -6836,7 +6841,7 @@
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6" t="s">
         <v>136</v>
@@ -6845,7 +6850,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
         <v>137</v>
@@ -6854,7 +6859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
         <v>15</v>
@@ -6863,7 +6868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
         <v>138</v>
@@ -6872,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
         <v>92</v>
@@ -6914,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6" t="s">
         <v>139</v>
@@ -6956,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6" t="s">
         <v>140</v>
@@ -6998,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6" t="s">
         <v>343</v>
@@ -7040,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6" t="s">
         <v>141</v>
@@ -7082,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
         <v>142</v>
@@ -7124,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
         <v>143</v>
@@ -7166,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6" t="s">
         <v>144</v>
@@ -7208,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6" t="s">
         <v>71</v>
@@ -7247,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6" t="s">
         <v>145</v>
@@ -7286,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6" t="s">
         <v>93</v>
@@ -7325,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6" t="s">
         <v>115</v>
@@ -7367,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6" t="s">
         <v>146</v>
@@ -7409,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6" t="s">
         <v>147</v>
@@ -7451,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6" t="s">
         <v>148</v>
@@ -7493,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6" t="s">
         <v>149</v>
@@ -7535,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6" t="s">
         <v>150</v>
@@ -7574,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6" t="s">
         <v>151</v>
@@ -7616,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6" t="s">
         <v>152</v>
@@ -7658,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6" t="s">
         <v>153</v>
@@ -7700,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6" t="s">
         <v>95</v>
@@ -7742,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6" t="s">
         <v>154</v>
@@ -7781,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6" t="s">
         <v>155</v>
@@ -7823,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6" t="s">
         <v>156</v>
@@ -7865,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6" t="s">
         <v>33</v>
@@ -7904,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6" t="s">
         <v>84</v>
@@ -7943,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6" t="s">
         <v>96</v>
@@ -7982,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6" t="s">
         <v>21</v>
@@ -8021,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6" t="s">
         <v>157</v>
@@ -8060,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6" t="s">
         <v>97</v>
@@ -8099,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6" t="s">
         <v>158</v>
@@ -8138,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6" t="s">
         <v>159</v>
@@ -8177,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6" t="s">
         <v>160</v>
@@ -8216,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6" t="s">
         <v>161</v>
@@ -8255,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6" t="s">
         <v>98</v>
@@ -8294,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6" t="s">
         <v>99</v>
@@ -8333,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6" t="s">
         <v>162</v>
@@ -8375,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>163</v>
       </c>
@@ -8386,7 +8391,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6" t="s">
         <v>164</v>
@@ -8428,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6" t="s">
         <v>23</v>
@@ -8470,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6" t="s">
         <v>19</v>
@@ -8512,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6" t="s">
         <v>112</v>
@@ -8554,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6" t="s">
         <v>165</v>
@@ -8596,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6" t="s">
         <v>166</v>
@@ -8638,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6" t="s">
         <v>167</v>
@@ -8680,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6" t="s">
         <v>168</v>
@@ -8722,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6" t="s">
         <v>169</v>
@@ -8764,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>170</v>
       </c>
@@ -8775,7 +8780,7 @@
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6" t="s">
         <v>19</v>
@@ -8817,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6" t="s">
         <v>171</v>
@@ -8859,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6" t="s">
         <v>172</v>
@@ -8901,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>173</v>
       </c>
@@ -8912,7 +8917,7 @@
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6" t="s">
         <v>174</v>
@@ -8951,13 +8956,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6" t="s">
         <v>23</v>
@@ -8999,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6" t="s">
         <v>176</v>
@@ -9041,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6" t="s">
         <v>177</v>
@@ -9080,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6" t="s">
         <v>175</v>
@@ -9113,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -9122,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6" t="s">
         <v>26</v>
@@ -9164,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6" t="s">
         <v>69</v>
@@ -9203,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6" t="s">
         <v>178</v>
@@ -9245,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6" t="s">
         <v>179</v>
@@ -9287,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6" t="s">
         <v>70</v>
@@ -9329,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6" t="s">
         <v>180</v>
@@ -9371,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6" t="s">
         <v>181</v>
@@ -9413,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6" t="s">
         <v>182</v>
@@ -9455,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6" t="s">
         <v>183</v>
@@ -9497,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6" t="s">
         <v>184</v>
@@ -9539,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6" t="s">
         <v>185</v>
@@ -9581,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6" t="s">
         <v>186</v>
@@ -9623,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6" t="s">
         <v>187</v>
@@ -9662,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6" t="s">
         <v>188</v>
@@ -9704,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6" t="s">
         <v>189</v>
@@ -9746,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6" t="s">
         <v>33</v>
@@ -9764,13 +9769,13 @@
         <v>18</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -9788,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6" t="s">
         <v>190</v>
@@ -9827,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6" t="s">
         <v>191</v>
@@ -9866,7 +9871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6" t="s">
         <v>89</v>
@@ -9905,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6" t="s">
         <v>192</v>
@@ -9944,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6" t="s">
         <v>193</v>
@@ -9986,13 +9991,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="s">
         <v>42</v>
@@ -10028,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>195</v>
       </c>
@@ -10039,7 +10044,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6" t="s">
         <v>196</v>
@@ -10078,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6" t="s">
         <v>197</v>
@@ -10108,13 +10113,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6" t="s">
         <v>199</v>
@@ -10153,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6" t="s">
         <v>200</v>
@@ -10195,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6" t="s">
         <v>23</v>
@@ -10237,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6" t="s">
         <v>201</v>
@@ -10279,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6" t="s">
         <v>112</v>
@@ -10321,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6" t="s">
         <v>202</v>
@@ -10363,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6" t="s">
         <v>203</v>
@@ -10405,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6" t="s">
         <v>69</v>
@@ -10447,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6" t="s">
         <v>204</v>
@@ -10465,13 +10470,13 @@
         <v>18</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10489,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6" t="s">
         <v>205</v>
@@ -10528,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6" t="s">
         <v>206</v>
@@ -10567,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6" t="s">
         <v>207</v>
@@ -10606,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6" t="s">
         <v>208</v>
@@ -10645,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6" t="s">
         <v>209</v>
@@ -10684,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6" t="s">
         <v>210</v>
@@ -10723,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6" t="s">
         <v>211</v>
@@ -10762,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6" t="s">
         <v>71</v>
@@ -10801,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6" t="s">
         <v>42</v>
@@ -10843,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6" t="s">
         <v>47</v>
@@ -10885,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6" t="s">
         <v>115</v>
@@ -10927,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6" t="s">
         <v>28</v>
@@ -10969,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6" t="s">
         <v>212</v>
@@ -11011,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6" t="s">
         <v>213</v>
@@ -11053,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6" t="s">
         <v>214</v>
@@ -11095,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6" t="s">
         <v>215</v>
@@ -11137,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6" t="s">
         <v>216</v>
@@ -11176,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6" t="s">
         <v>217</v>
@@ -11215,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6" t="s">
         <v>218</v>
@@ -11254,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6" t="s">
         <v>64</v>
@@ -11293,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6" t="s">
         <v>219</v>
@@ -11332,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6" t="s">
         <v>220</v>
@@ -11371,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6" t="s">
         <v>221</v>
@@ -11413,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6" t="s">
         <v>190</v>
@@ -11452,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6" t="s">
         <v>88</v>
@@ -11491,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6" t="s">
         <v>222</v>
@@ -11530,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6" t="s">
         <v>223</v>
@@ -11569,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6" t="s">
         <v>224</v>
@@ -11608,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6" t="s">
         <v>197</v>
@@ -11647,7 +11652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6" t="s">
         <v>225</v>
@@ -11686,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6" t="s">
         <v>226</v>
@@ -11728,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6" t="s">
         <v>227</v>
@@ -11770,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6" t="s">
         <v>228</v>
@@ -11812,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>229</v>
       </c>
@@ -11823,7 +11828,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="10" t="s">
         <v>230</v>
@@ -11856,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6" t="s">
         <v>231</v>
@@ -11898,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6" t="s">
         <v>232</v>
@@ -11937,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6" t="s">
         <v>200</v>
@@ -11979,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6" t="s">
         <v>233</v>
@@ -12018,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6" t="s">
         <v>234</v>
@@ -12057,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6" t="s">
         <v>175</v>
@@ -12096,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6" t="s">
         <v>19</v>
@@ -12138,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6" t="s">
         <v>235</v>
@@ -12180,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6" t="s">
         <v>112</v>
@@ -12222,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6" t="s">
         <v>236</v>
@@ -12264,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6" t="s">
         <v>69</v>
@@ -12303,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6" t="s">
         <v>237</v>
@@ -12345,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6" t="s">
         <v>238</v>
@@ -12387,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6" t="s">
         <v>239</v>
@@ -12426,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6" t="s">
         <v>240</v>
@@ -12468,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6" t="s">
         <v>241</v>
@@ -12510,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6" t="s">
         <v>242</v>
@@ -12549,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6" t="s">
         <v>243</v>
@@ -12591,7 +12596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6" t="s">
         <v>244</v>
@@ -12633,7 +12638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6" t="s">
         <v>245</v>
@@ -12675,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6" t="s">
         <v>246</v>
@@ -12714,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6" t="s">
         <v>247</v>
@@ -12756,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6" t="s">
         <v>248</v>
@@ -12798,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6" t="s">
         <v>249</v>
@@ -12837,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6" t="s">
         <v>230</v>
@@ -12876,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6" t="s">
         <v>250</v>
@@ -12918,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6" t="s">
         <v>219</v>
@@ -12957,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6" t="s">
         <v>251</v>
@@ -12999,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6" t="s">
         <v>133</v>
@@ -13041,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6" t="s">
         <v>252</v>
@@ -13083,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6" t="s">
         <v>134</v>
@@ -13122,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6" t="s">
         <v>253</v>
@@ -13161,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6" t="s">
         <v>88</v>
@@ -13200,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6" t="s">
         <v>254</v>
@@ -13239,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6" t="s">
         <v>89</v>
@@ -13278,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6" t="s">
         <v>255</v>
@@ -13317,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6" t="s">
         <v>256</v>
@@ -13356,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="11" t="s">
         <v>231</v>
@@ -13365,14 +13370,14 @@
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>257</v>
       </c>
@@ -13385,7 +13390,7 @@
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6" t="s">
         <v>258</v>
@@ -13427,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6" t="s">
         <v>111</v>
@@ -13469,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6" t="s">
         <v>259</v>
@@ -13511,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6" t="s">
         <v>260</v>
@@ -13553,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6" t="s">
         <v>19</v>
@@ -13595,7 +13600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6" t="s">
         <v>261</v>
@@ -13637,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6" t="s">
         <v>250</v>
@@ -13679,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6" t="s">
         <v>31</v>
@@ -13721,7 +13726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>262</v>
       </c>
@@ -13734,7 +13739,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6" t="s">
         <v>19</v>
@@ -13776,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6" t="s">
         <v>250</v>
@@ -13818,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6" t="s">
         <v>263</v>
@@ -13857,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6" t="s">
         <v>193</v>
@@ -13899,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>264</v>
       </c>
@@ -13912,7 +13917,7 @@
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6" t="s">
         <v>19</v>
@@ -13954,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6" t="s">
         <v>112</v>
@@ -13996,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6" t="s">
         <v>69</v>
@@ -14038,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6" t="s">
         <v>60</v>
@@ -14080,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6" t="s">
         <v>265</v>
@@ -14122,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6" t="s">
         <v>266</v>
@@ -14161,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6" t="s">
         <v>267</v>
@@ -14200,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6" t="s">
         <v>268</v>
@@ -14239,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6" t="s">
         <v>269</v>
@@ -14281,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6" t="s">
         <v>74</v>
@@ -14323,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6" t="s">
         <v>270</v>
@@ -14365,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6" t="s">
         <v>42</v>
@@ -14407,7 +14412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6" t="s">
         <v>115</v>
@@ -14449,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6" t="s">
         <v>271</v>
@@ -14491,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6" t="s">
         <v>272</v>
@@ -14530,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6" t="s">
         <v>273</v>
@@ -14569,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6" t="s">
         <v>104</v>
@@ -14611,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6" t="s">
         <v>274</v>
@@ -14650,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6" t="s">
         <v>275</v>
@@ -14689,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6" t="s">
         <v>276</v>
@@ -14731,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6" t="s">
         <v>277</v>
@@ -14773,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6" t="s">
         <v>278</v>
@@ -14815,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="s">
         <v>88</v>
@@ -14854,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6" t="s">
         <v>222</v>
@@ -14893,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="s">
         <v>89</v>
@@ -14926,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="L365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M365">
         <v>0</v>
@@ -14935,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="s">
         <v>279</v>
@@ -14974,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>280</v>
       </c>
@@ -14985,7 +14990,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="s">
         <v>69</v>
@@ -15027,7 +15032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6" t="s">
         <v>281</v>
@@ -15069,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="s">
         <v>71</v>
@@ -15111,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6" t="s">
         <v>282</v>
@@ -15153,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>283</v>
       </c>
@@ -15164,7 +15169,7 @@
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="s">
         <v>284</v>
@@ -15203,13 +15208,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="s">
         <v>281</v>
@@ -15251,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="s">
         <v>71</v>
@@ -15293,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="s">
         <v>286</v>
@@ -15332,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="s">
         <v>119</v>
@@ -15374,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="s">
         <v>285</v>
@@ -15416,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>287</v>
       </c>
@@ -15429,7 +15434,7 @@
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="s">
         <v>177</v>
@@ -15468,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6" t="s">
         <v>288</v>
@@ -15507,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="s">
         <v>284</v>
@@ -15546,7 +15551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6" t="s">
         <v>281</v>
@@ -15588,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="s">
         <v>71</v>
@@ -15630,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="s">
         <v>286</v>
@@ -15669,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="s">
         <v>289</v>
@@ -15708,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="s">
         <v>290</v>
@@ -15750,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6" t="s">
         <v>119</v>
@@ -15792,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="s">
         <v>285</v>
@@ -15834,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6" t="s">
         <v>89</v>
@@ -15873,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="s">
         <v>291</v>
@@ -15912,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>292</v>
       </c>
@@ -15923,7 +15928,7 @@
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6" t="s">
         <v>284</v>
@@ -15962,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="s">
         <v>281</v>
@@ -15973,11 +15978,32 @@
       <c r="F395" t="s">
         <v>18</v>
       </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
       <c r="L395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:14">
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6" t="s">
         <v>71</v>
@@ -15995,10 +16021,10 @@
         <v>18</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I396">
         <v>0</v>
@@ -16019,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="s">
         <v>286</v>
@@ -16061,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="s">
         <v>119</v>
@@ -16097,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="s">
         <v>285</v>
@@ -16133,7 +16159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>293</v>
       </c>
@@ -16144,7 +16170,7 @@
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="s">
         <v>69</v>
@@ -16186,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6" t="s">
         <v>294</v>
@@ -16219,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="s">
         <v>71</v>
@@ -16261,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="s">
         <v>285</v>
@@ -16303,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="s">
         <v>295</v>
@@ -16345,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>296</v>
       </c>
@@ -16356,7 +16382,7 @@
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="s">
         <v>69</v>
@@ -16398,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="s">
         <v>71</v>
@@ -16440,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="s">
         <v>297</v>
@@ -16482,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="s">
         <v>282</v>
@@ -16524,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="s">
         <v>285</v>
@@ -16566,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>298</v>
       </c>
@@ -16577,7 +16603,7 @@
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="s">
         <v>136</v>
@@ -16586,7 +16612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="s">
         <v>15</v>
@@ -16595,7 +16621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="s">
         <v>299</v>
@@ -16604,7 +16630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="s">
         <v>300</v>
@@ -16643,7 +16669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="s">
         <v>301</v>
@@ -16682,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="s">
         <v>200</v>
@@ -16691,7 +16717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="s">
         <v>302</v>
@@ -16730,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6" t="s">
         <v>92</v>
@@ -16766,7 +16792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6" t="s">
         <v>303</v>
@@ -16799,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6" t="s">
         <v>72</v>
@@ -16838,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6" t="s">
         <v>145</v>
@@ -16877,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6" t="s">
         <v>93</v>
@@ -16916,7 +16942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6" t="s">
         <v>94</v>
@@ -16955,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6" t="s">
         <v>304</v>
@@ -16967,13 +16993,13 @@
         <v>18</v>
       </c>
       <c r="G426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426">
         <v>0</v>
@@ -16991,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6" t="s">
         <v>76</v>
@@ -17030,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6" t="s">
         <v>65</v>
@@ -17069,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6" t="s">
         <v>20</v>
@@ -17108,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6" t="s">
         <v>152</v>
@@ -17117,7 +17143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6" t="s">
         <v>95</v>
@@ -17126,7 +17152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6" t="s">
         <v>305</v>
@@ -17165,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6" t="s">
         <v>306</v>
@@ -17174,7 +17200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6" t="s">
         <v>84</v>
@@ -17213,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6" t="s">
         <v>307</v>
@@ -17252,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6" t="s">
         <v>96</v>
@@ -17291,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6" t="s">
         <v>21</v>
@@ -17330,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6" t="s">
         <v>97</v>
@@ -17369,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6" t="s">
         <v>308</v>
@@ -17408,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6" t="s">
         <v>160</v>
@@ -17450,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6" t="s">
         <v>309</v>
@@ -17489,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6" t="s">
         <v>98</v>
@@ -17528,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6" t="s">
         <v>99</v>
@@ -17567,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6" t="s">
         <v>100</v>
@@ -17606,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6" t="s">
         <v>162</v>
@@ -17645,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6" t="s">
         <v>88</v>
@@ -17684,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>310</v>
       </c>
@@ -17695,7 +17721,7 @@
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6" t="s">
         <v>311</v>
@@ -17737,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6" t="s">
         <v>312</v>
@@ -17779,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6" t="s">
         <v>313</v>
@@ -17821,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6" t="s">
         <v>314</v>
@@ -17863,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6" t="s">
         <v>315</v>
@@ -17905,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6" t="s">
         <v>316</v>
@@ -17947,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6" t="s">
         <v>317</v>
@@ -17989,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>318</v>
       </c>
@@ -18000,7 +18026,7 @@
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6" t="s">
         <v>312</v>
@@ -18042,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6" t="s">
         <v>319</v>
@@ -18084,7 +18110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6" t="s">
         <v>317</v>
@@ -18126,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>320</v>
       </c>
@@ -18137,7 +18163,7 @@
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6" t="s">
         <v>19</v>
@@ -18179,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6" t="s">
         <v>42</v>
@@ -18221,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>321</v>
       </c>
@@ -18232,7 +18258,7 @@
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6" t="s">
         <v>121</v>
@@ -18274,7 +18300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6" t="s">
         <v>111</v>
@@ -18316,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6" t="s">
         <v>322</v>
@@ -18358,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6" t="s">
         <v>323</v>
@@ -18400,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6" t="s">
         <v>48</v>
@@ -18442,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6" t="s">
         <v>31</v>
@@ -18484,7 +18510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6" t="s">
         <v>324</v>
@@ -18526,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6" t="s">
         <v>33</v>
@@ -18568,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6" t="s">
         <v>325</v>
@@ -18610,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>326</v>
       </c>
@@ -18621,7 +18647,7 @@
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6" t="s">
         <v>70</v>
@@ -18660,7 +18686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6" t="s">
         <v>71</v>
@@ -18702,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6" t="s">
         <v>61</v>
@@ -18741,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6" t="s">
         <v>74</v>
@@ -18759,13 +18785,13 @@
         <v>18</v>
       </c>
       <c r="G476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J476">
         <v>0</v>
@@ -18783,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6" t="s">
         <v>62</v>
@@ -18822,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6" t="s">
         <v>76</v>
@@ -18861,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6" t="s">
         <v>77</v>
@@ -18900,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6" t="s">
         <v>78</v>
@@ -18939,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6" t="s">
         <v>81</v>
@@ -18978,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6" t="s">
         <v>20</v>
@@ -18992,9 +19018,6 @@
       <c r="E482">
         <v>0</v>
       </c>
-      <c r="F482" t="s">
-        <v>18</v>
-      </c>
       <c r="G482">
         <v>0</v>
       </c>
@@ -19011,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="L482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M482">
         <v>0</v>
@@ -19020,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6" t="s">
         <v>82</v>
@@ -19059,7 +19082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6" t="s">
         <v>327</v>
@@ -19098,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6" t="s">
         <v>88</v>
@@ -19137,7 +19160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6" t="s">
         <v>89</v>
@@ -19176,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6" t="s">
         <v>279</v>
@@ -19215,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>328</v>
       </c>
@@ -19228,7 +19251,7 @@
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6" t="s">
         <v>311</v>
@@ -19270,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6" t="s">
         <v>329</v>
@@ -19312,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6" t="s">
         <v>314</v>
@@ -19354,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6" t="s">
         <v>31</v>
@@ -19396,7 +19419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>330</v>
       </c>
@@ -19409,7 +19432,7 @@
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6" t="s">
         <v>69</v>
@@ -19448,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6" t="s">
         <v>302</v>
@@ -19487,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6" t="s">
         <v>331</v>
@@ -19526,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6" t="s">
         <v>208</v>
@@ -19565,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6" t="s">
         <v>332</v>
@@ -19604,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6" t="s">
         <v>71</v>
@@ -19643,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6" t="s">
         <v>74</v>
@@ -19685,7 +19708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6" t="s">
         <v>333</v>
@@ -19724,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6" t="s">
         <v>334</v>
@@ -19763,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6" t="s">
         <v>335</v>
@@ -19802,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6" t="s">
         <v>88</v>
@@ -19841,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>336</v>
       </c>
@@ -19854,7 +19877,7 @@
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6" t="s">
         <v>69</v>
@@ -19893,7 +19916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6" t="s">
         <v>337</v>
@@ -19935,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6" t="s">
         <v>338</v>
@@ -19974,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6" t="s">
         <v>74</v>
@@ -20016,7 +20039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6" t="s">
         <v>88</v>
@@ -20055,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>339</v>
       </c>
@@ -20068,7 +20091,7 @@
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6" t="s">
         <v>340</v>
@@ -20110,12 +20133,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="12" t="s">
         <v>342</v>
       </c>

--- a/Main Modul/info.xlsx
+++ b/Main Modul/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITLAB\Python\ACS_BINAR.test\Main Modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D6AA4-CE8E-4614-8133-41E427D62039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE5961-42CB-4206-ACF0-033AFDBCC7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
   <dimension ref="A1:N517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G420" sqref="G420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16764,23 +16764,29 @@
       <c r="C420">
         <v>10</v>
       </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
       <c r="F420" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420">
         <v>0</v>
       </c>
       <c r="K420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L420">
         <v>1</v>
